--- a/CS320-Spring2020Calendar.xlsx
+++ b/CS320-Spring2020Calendar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="-165" windowWidth="27855" windowHeight="13905"/>
+    <workbookView xWindow="315" yWindow="-165" windowWidth="13305" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>Monday</t>
   </si>
@@ -76,15 +76,6 @@
   <si>
     <t>Lecture 11: OO Design, OCP, LSP
 Design Principles and Design Patterns</t>
-  </si>
-  <si>
-    <t>Lecture 12: Version Control
-(Git)</t>
-  </si>
-  <si>
-    <t>Lab 3:
-Git and Egit
-(in class)</t>
   </si>
   <si>
     <t>Lecture 16: Testing</t>
@@ -203,32 +194,6 @@
     <t>A04: Individual MS1 Baseline Prototype</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lecture 4: Web Applications
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lab 2a: Web Applications assigned</t>
-    </r>
-  </si>
-  <si>
-    <t>Web Applications I Exercise &amp; Lab 2
-(in class)</t>
-  </si>
-  <si>
-    <t>Web Applications II
-(Lab 2a)
-(in class)</t>
-  </si>
-  <si>
     <t>Lecture 7:
 Agile &amp; Scrum
 (Agile Manifesto)
@@ -289,11 +254,6 @@
 (Google Doc)</t>
   </si>
   <si>
-    <t>Lab 2a: Web Apps II due
-7:00 am
-(Marmoset)</t>
-  </si>
-  <si>
     <t>Lab 5: JDBC due
 7:00 am
 (Marmoset)</t>
@@ -323,51 +283,7 @@
 both 7:00 am (Marmoset)</t>
   </si>
   <si>
-    <t>Lab 2: Web Apps I due
-for 110%
-7:00 am
-(Marmoset)</t>
-  </si>
-  <si>
-    <t>Lab 2: Web Apps I due
-for 100%
-7:00 am
-(Marmoset)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Team Session:
-Textual Analysis
-(in class)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A05: Use Cases due, 7:00 am</t>
-    </r>
-  </si>
-  <si>
-    <t>A05: Team
-Use Cases due
-7:00 am
-MON, 2-18 --&gt;
-(Google Doc)</t>
-  </si>
-  <si>
     <t>A06: Domain Analysis due</t>
-  </si>
-  <si>
-    <t>Lab 4: SQL due
-7:00 am
-WEDS, 3-13 --&gt;
-(Marmoset)</t>
   </si>
   <si>
     <r>
@@ -412,30 +328,7 @@
     </r>
   </si>
   <si>
-    <t>In-Class
-Lab/Team
-Session</t>
-  </si>
-  <si>
     <t>Work Ethic Lecture</t>
-  </si>
-  <si>
-    <t>Start-Up Pitches for Summer Interns (and beyond)</t>
-  </si>
-  <si>
-    <t>Library Example Review
-Team Sesson
-(in-class)</t>
-  </si>
-  <si>
-    <t>Exam Review
-Team Session
-(in class)</t>
-  </si>
-  <si>
-    <t>Library Example
-and
-Exam Review</t>
   </si>
   <si>
     <t>CS320: SW Engineering - Spring 2020 Schedule
@@ -443,13 +336,119 @@
   </si>
   <si>
     <t>Final Presentation &amp; Demo</t>
+  </si>
+  <si>
+    <t>Web
+Applications II</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web
+Applications I
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lab 2: Web Applications
+assigned</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lecture 4: Web Applications
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Git Lab: Part I
+due</t>
+    </r>
+  </si>
+  <si>
+    <t>Lab 3:
+Git and Egit
+Part II
+(in class)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Team Session:
+Textual Analysis
+(in class)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A05: Team Use Cases due
+7:00 am
+(Google Doc)</t>
+    </r>
+  </si>
+  <si>
+    <t>Reading Day
+No Class</t>
+  </si>
+  <si>
+    <t>Exam Review
+and
+Library Example</t>
+  </si>
+  <si>
+    <t>Library Example Analysis and
+Review</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lecture 12: Version Control
+(Git)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Git Lab: Part I
+(assigned)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lab 2: Web
+Application due
+7:00 am
+(Marmoset)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,14 +533,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -593,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1066,8 +1057,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1076,13 +1082,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1192,12 +1200,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1220,9 +1222,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1327,9 +1326,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1354,9 +1350,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,19 +1401,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1474,29 +1485,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1802,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,48 +1810,27 @@
     <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="13" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="6.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="116"/>
-      <c r="K1" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="116"/>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -1882,47 +1854,22 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="121">
         <v>16</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="49">
         <v>19</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="50">
         <f>C3 + 1</f>
         <v>20</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="50">
         <f t="shared" ref="E3:I3" si="0">D3 + 1</f>
         <v>21</v>
       </c>
@@ -1942,85 +1889,33 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="K3" s="120">
-        <v>16</v>
-      </c>
-      <c r="L3" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="52">
-        <v>19</v>
-      </c>
-      <c r="N3" s="53">
-        <f>M3 + 1</f>
+    </row>
+    <row r="4" spans="1:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="53">
-        <f t="shared" ref="O3" si="1">N3 + 1</f>
+      <c r="G4" s="8"/>
+      <c r="H4" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="5">
-        <f t="shared" ref="P3" si="2">O3 + 1</f>
-        <v>22</v>
-      </c>
-      <c r="Q3" s="5">
-        <f t="shared" ref="Q3" si="3">P3 + 1</f>
-        <v>23</v>
-      </c>
-      <c r="R3" s="5">
-        <f t="shared" ref="R3" si="4">Q3 + 1</f>
-        <v>24</v>
-      </c>
-      <c r="S3" s="6">
-        <f t="shared" ref="S3" si="5">R3 + 1</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="88"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="88"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119">
+      <c r="I4" s="84"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120">
         <v>15</v>
       </c>
-      <c r="B5" s="124"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>26</v>
@@ -2030,124 +1925,70 @@
         <v>27</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5:I15" si="6">D5 + 1</f>
+        <f t="shared" ref="E5:I15" si="1">D5 + 1</f>
         <v>28</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="I5" s="110">
+      <c r="I5" s="104">
         <v>1</v>
       </c>
-      <c r="K5" s="119">
-        <v>15</v>
-      </c>
-      <c r="L5" s="124"/>
-      <c r="M5" s="10">
-        <f>S3 + 1</f>
-        <v>26</v>
-      </c>
-      <c r="N5" s="7">
-        <f>M5 + 1</f>
-        <v>27</v>
-      </c>
-      <c r="O5" s="7">
-        <f t="shared" ref="O5:O15" si="7">N5 + 1</f>
-        <v>28</v>
-      </c>
-      <c r="P5" s="7">
-        <f t="shared" ref="P5:P15" si="8">O5 + 1</f>
-        <v>29</v>
-      </c>
-      <c r="Q5" s="7">
-        <f t="shared" ref="Q5:Q15" si="9">P5 + 1</f>
-        <v>30</v>
-      </c>
-      <c r="R5" s="11">
-        <f t="shared" ref="R5:R15" si="10">Q5 + 1</f>
-        <v>31</v>
-      </c>
-      <c r="S5" s="110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="72" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="122"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="121"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" s="131" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="120">
+      <c r="I6" s="111" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="121">
         <v>14</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="82">
         <f>I5 + 1</f>
         <v>2</v>
       </c>
-      <c r="D7" s="87">
+      <c r="D7" s="83">
         <f>C7 + 1</f>
         <v>3</v>
       </c>
-      <c r="E7" s="87">
-        <f t="shared" si="6"/>
+      <c r="E7" s="83">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="76">
         <f>E7+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="77">
         <f>F7+1</f>
         <v>6</v>
       </c>
@@ -2159,86 +2000,31 @@
         <f>H7+1</f>
         <v>8</v>
       </c>
-      <c r="K7" s="120">
-        <v>14</v>
-      </c>
-      <c r="L7" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="86">
-        <f>S5 + 1</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="87">
-        <f>M7 + 1</f>
-        <v>3</v>
-      </c>
-      <c r="O7" s="87">
-        <f t="shared" ref="O7:O17" si="11">N7 + 1</f>
-        <v>4</v>
-      </c>
-      <c r="P7" s="79">
-        <f>O7+1</f>
-        <v>5</v>
-      </c>
-      <c r="Q7" s="80">
-        <f>P7+1</f>
-        <v>6</v>
-      </c>
-      <c r="R7" s="19">
-        <f>Q7 + 1</f>
-        <v>7</v>
-      </c>
-      <c r="S7" s="20">
-        <f>R7+1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="122"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="82"/>
-      <c r="P8" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" s="48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118">
+    </row>
+    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="123"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="119">
         <v>13</v>
       </c>
-      <c r="B9" s="126"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="18">
         <f>I7 + 1</f>
         <v>9</v>
@@ -2248,99 +2034,50 @@
         <v>10</v>
       </c>
       <c r="E9" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F9" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G9" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H9" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I9" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K9" s="118">
-        <v>13</v>
-      </c>
-      <c r="L9" s="126"/>
-      <c r="M9" s="18">
-        <f>S7 + 1</f>
-        <v>9</v>
-      </c>
-      <c r="N9" s="19">
-        <f>M9 + 1</f>
-        <v>10</v>
-      </c>
-      <c r="O9" s="19">
-        <f t="shared" ref="O9:O19" si="12">N9 + 1</f>
-        <v>11</v>
-      </c>
-      <c r="P9" s="19">
-        <f t="shared" ref="P9:P19" si="13">O9 + 1</f>
-        <v>12</v>
-      </c>
-      <c r="Q9" s="16">
-        <f t="shared" ref="Q9:Q19" si="14">P9 + 1</f>
-        <v>13</v>
-      </c>
-      <c r="R9" s="16">
-        <f t="shared" ref="R9:R19" si="15">Q9 + 1</f>
-        <v>14</v>
-      </c>
-      <c r="S9" s="20">
-        <f t="shared" ref="S9:S19" si="16">R9 + 1</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>44</v>
+    </row>
+    <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="120"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
-        <v>47</v>
+      <c r="F10" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="17"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119">
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="120">
         <v>12</v>
       </c>
-      <c r="B11" s="126"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="21">
         <f>I9 + 1</f>
         <v>16</v>
@@ -2350,99 +2087,48 @@
         <v>17</v>
       </c>
       <c r="E11" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F11" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="G11" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H11" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I11" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K11" s="119">
-        <v>12</v>
-      </c>
-      <c r="L11" s="126"/>
-      <c r="M11" s="21">
-        <f>S9 + 1</f>
-        <v>16</v>
-      </c>
-      <c r="N11" s="16">
-        <f>M11 + 1</f>
-        <v>17</v>
-      </c>
-      <c r="O11" s="16">
-        <f t="shared" ref="O11:O21" si="17">N11 + 1</f>
-        <v>18</v>
-      </c>
-      <c r="P11" s="27">
-        <f t="shared" ref="P11:P21" si="18">O11 + 1</f>
-        <v>19</v>
-      </c>
-      <c r="Q11" s="16">
-        <f t="shared" ref="Q11:Q21" si="19">P11 + 1</f>
-        <v>20</v>
-      </c>
-      <c r="R11" s="16">
-        <f t="shared" ref="R11:R21" si="20">Q11 + 1</f>
-        <v>21</v>
-      </c>
-      <c r="S11" s="20">
-        <f t="shared" ref="S11:S21" si="21">R11 + 1</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="111" t="s">
-        <v>64</v>
+    </row>
+    <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="120"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="89"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="15"/>
-      <c r="P12" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="89"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119">
+      <c r="H12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="85"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120">
         <v>11</v>
       </c>
-      <c r="B13" s="126"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="21">
         <f>I11 + 1</f>
         <v>23</v>
@@ -2452,224 +2138,113 @@
         <v>24</v>
       </c>
       <c r="E13" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="G13" s="90">
-        <f t="shared" si="6"/>
+      <c r="G13" s="86">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I13" s="55">
-        <f t="shared" si="6"/>
+      <c r="I13" s="52">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="K13" s="119">
-        <v>11</v>
-      </c>
-      <c r="L13" s="126"/>
-      <c r="M13" s="21">
-        <f>S11 + 1</f>
-        <v>23</v>
-      </c>
-      <c r="N13" s="16">
-        <f>M13 + 1</f>
-        <v>24</v>
-      </c>
-      <c r="O13" s="16">
-        <f t="shared" ref="O13:O23" si="22">N13 + 1</f>
+    </row>
+    <row r="14" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="123"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="87"/>
+      <c r="F14" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="103"/>
+      <c r="H14" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="16">
-        <f t="shared" ref="P13:P23" si="23">O13 + 1</f>
-        <v>26</v>
-      </c>
-      <c r="Q13" s="90">
-        <f t="shared" ref="Q13:Q23" si="24">P13 + 1</f>
-        <v>27</v>
-      </c>
-      <c r="R13" s="16">
-        <f t="shared" ref="R13:R23" si="25">Q13 + 1</f>
-        <v>28</v>
-      </c>
-      <c r="S13" s="55">
-        <f t="shared" ref="S13:S23" si="26">R13 + 1</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="108"/>
-      <c r="H14" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="122"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="92"/>
-      <c r="P14" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="S14" s="60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120">
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="121">
         <v>10</v>
       </c>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="49">
         <v>1</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="50">
         <f>C15 + 1</f>
         <v>2</v>
       </c>
-      <c r="E15" s="93">
-        <f t="shared" si="6"/>
+      <c r="E15" s="88">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="50">
         <f>E15 + 1</f>
         <v>4</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="59">
         <f>F15 + 1</f>
         <v>5</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="61">
         <f>G15 + 1</f>
         <v>6</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="89">
         <f>H15 + 1</f>
         <v>7</v>
       </c>
-      <c r="K15" s="120">
-        <v>10</v>
-      </c>
-      <c r="L15" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="52">
-        <v>1</v>
-      </c>
-      <c r="N15" s="53">
-        <f>M15 + 1</f>
-        <v>2</v>
-      </c>
-      <c r="O15" s="93">
-        <f t="shared" ref="O15:O25" si="27">N15 + 1</f>
-        <v>3</v>
-      </c>
-      <c r="P15" s="53">
-        <f>O15 + 1</f>
-        <v>4</v>
-      </c>
-      <c r="Q15" s="62">
-        <f>P15 + 1</f>
-        <v>5</v>
-      </c>
-      <c r="R15" s="64">
-        <f>Q15 + 1</f>
-        <v>6</v>
-      </c>
-      <c r="S15" s="94">
-        <f>R15 + 1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="57" t="str">
+    </row>
+    <row r="16" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="122"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="54" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="D16" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="59" t="str">
+      <c r="D16" s="56" t="str">
         <f>C16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="F16" s="61" t="str">
+      <c r="E16" s="56" t="str">
+        <f>C16</f>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="F16" s="58" t="str">
         <f>E16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="G16" s="58" t="str">
+      <c r="G16" s="55" t="str">
         <f>F16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="H16" s="61" t="str">
+      <c r="H16" s="58" t="str">
         <f>G16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I16" s="60" t="str">
-        <f t="shared" ref="I16" si="28">H16</f>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="K16" s="121"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="57" t="str">
-        <f>S14</f>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="N16" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="59" t="str">
-        <f>M16</f>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="P16" s="61" t="str">
-        <f>O16</f>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="Q16" s="58" t="str">
-        <f>P16</f>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="R16" s="61" t="str">
-        <f>Q16</f>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="S16" s="60" t="str">
-        <f t="shared" ref="S16:S18" si="29">R16</f>
-        <v>WINTER BREAK</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="35" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+      <c r="I16" s="113" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="35" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
       <c r="B17" s="31"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -2678,152 +2253,82 @@
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-    </row>
-    <row r="18" spans="1:19" s="35" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
+    </row>
+    <row r="18" spans="1:9" s="35" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63"/>
       <c r="B18" s="31"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="73" t="s">
-        <v>35</v>
+      <c r="E18" s="70" t="s">
+        <v>33</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="31"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-    </row>
-    <row r="19" spans="1:19" s="33" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
+    </row>
+    <row r="19" spans="1:9" s="33" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="63"/>
       <c r="B19" s="36"/>
       <c r="D19" s="30"/>
-      <c r="E19" s="67" t="s">
-        <v>28</v>
+      <c r="E19" s="64" t="s">
+        <v>26</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="36"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-    </row>
-    <row r="20" spans="1:19" s="35" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
+    </row>
+    <row r="20" spans="1:9" s="35" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="63"/>
       <c r="B20" s="31"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="68" t="s">
-        <v>29</v>
+      <c r="E20" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="31"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-    </row>
-    <row r="21" spans="1:19" s="35" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
+    </row>
+    <row r="21" spans="1:9" s="35" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="63"/>
       <c r="B21" s="31"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="69" t="s">
-        <v>30</v>
+      <c r="E21" s="66" t="s">
+        <v>28</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="31"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-    </row>
-    <row r="22" spans="1:19" s="35" customFormat="1" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
+    </row>
+    <row r="22" spans="1:9" s="35" customFormat="1" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63"/>
       <c r="B22" s="31"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="70" t="s">
-        <v>31</v>
+      <c r="E22" s="67" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="31"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-    </row>
-    <row r="23" spans="1:19" s="35" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+    </row>
+    <row r="23" spans="1:9" s="35" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="63"/>
       <c r="B23" s="31"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="71" t="s">
-        <v>26</v>
+      <c r="E23" s="68" t="s">
+        <v>24</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-    </row>
-    <row r="24" spans="1:19" s="33" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
+    </row>
+    <row r="24" spans="1:9" s="33" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63"/>
       <c r="B24" s="36"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -2832,18 +2337,9 @@
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-    </row>
-    <row r="25" spans="1:19" s="33" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
+    </row>
+    <row r="25" spans="1:9" s="33" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="63"/>
       <c r="B25" s="36"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -2852,250 +2348,131 @@
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-    </row>
-    <row r="26" spans="1:19" s="32" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="114" t="str">
+    </row>
+    <row r="26" spans="1:9" s="32" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="115" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2020 Schedule
 (as of 1-14-2020, subject to change)</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
-      <c r="K26" s="114" t="str">
-        <f>K1</f>
-        <v>CS320: SW Engineering - Spring 2020 Schedule
-(as of 1-14-2020, subject to change)</v>
-      </c>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="116"/>
-    </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="117"/>
+    </row>
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f>A2</f>
         <v>Weeks</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="str">
-        <f t="shared" ref="C27:I27" si="30">C2</f>
+        <f t="shared" ref="C27:I27" si="2">C2</f>
         <v>Sunday</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>Friday</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
-      <c r="K27" s="1" t="str">
-        <f>K2</f>
-        <v>Weeks</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1" t="str">
-        <f t="shared" ref="M27:S27" si="31">M2</f>
-        <v>Sunday</v>
-      </c>
-      <c r="N27" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>Monday</v>
-      </c>
-      <c r="O27" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="P27" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>Wednesday</v>
-      </c>
-      <c r="Q27" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>Thursday</v>
-      </c>
-      <c r="R27" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>Friday</v>
-      </c>
-      <c r="S27" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>Saturday</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="117">
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="118">
         <v>10</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="50">
+      <c r="B28" s="73"/>
+      <c r="C28" s="47">
         <f>C15</f>
         <v>1</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="48">
         <f>C28 + 1</f>
         <v>2</v>
       </c>
-      <c r="E28" s="54">
-        <f t="shared" ref="E28" si="32">D28 + 1</f>
+      <c r="E28" s="51">
+        <f t="shared" ref="E28" si="3">D28 + 1</f>
         <v>3</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="50">
         <f>F15</f>
         <v>4</v>
       </c>
-      <c r="G28" s="62">
+      <c r="G28" s="59">
         <f>F28 + 1</f>
         <v>5</v>
       </c>
-      <c r="H28" s="53">
+      <c r="H28" s="50">
         <f>G28 + 1</f>
         <v>6</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="53">
         <f>H28 + 1</f>
         <v>7</v>
       </c>
-      <c r="K28" s="117">
-        <v>10</v>
-      </c>
-      <c r="L28" s="76"/>
-      <c r="M28" s="50">
-        <f>M15</f>
-        <v>1</v>
-      </c>
-      <c r="N28" s="51">
-        <f>M28 + 1</f>
-        <v>2</v>
-      </c>
-      <c r="O28" s="54">
-        <f t="shared" ref="O28" si="33">N28 + 1</f>
-        <v>3</v>
-      </c>
-      <c r="P28" s="53">
-        <f>P15</f>
-        <v>4</v>
-      </c>
-      <c r="Q28" s="62">
-        <f>P28 + 1</f>
-        <v>5</v>
-      </c>
-      <c r="R28" s="53">
-        <f>Q28 + 1</f>
-        <v>6</v>
-      </c>
-      <c r="S28" s="56">
-        <f>R28 + 1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="118"/>
-      <c r="B29" s="124" t="s">
+    </row>
+    <row r="29" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="119"/>
+      <c r="B29" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="96" t="str">
+      <c r="C29" s="47" t="str">
         <f>C16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="D29" s="47" t="str">
-        <f t="shared" ref="D29:I29" si="34">D16</f>
+      <c r="D29" s="48" t="str">
+        <f t="shared" ref="D29:I29" si="4">D16</f>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="E29" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="F29" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="G29" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="H29" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="I29" s="45" t="str">
+        <f t="shared" si="4"/>
         <v>A06: Domain Analysis due</v>
       </c>
-      <c r="E29" s="54" t="str">
-        <f t="shared" si="34"/>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="F29" s="51" t="str">
-        <f t="shared" si="34"/>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="G29" s="63" t="str">
-        <f t="shared" si="34"/>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="H29" s="51" t="str">
-        <f t="shared" si="34"/>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="I29" s="55" t="str">
-        <f t="shared" si="34"/>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="K29" s="118"/>
-      <c r="L29" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="96" t="str">
-        <f>M16</f>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="N29" s="47" t="str">
-        <f t="shared" ref="N29:S29" si="35">N16</f>
-        <v>A06: Domain Analysis due</v>
-      </c>
-      <c r="O29" s="54" t="str">
-        <f t="shared" si="35"/>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="P29" s="51" t="str">
-        <f t="shared" si="35"/>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="Q29" s="63" t="str">
-        <f t="shared" si="35"/>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="R29" s="51" t="str">
-        <f t="shared" si="35"/>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="S29" s="55" t="str">
-        <f t="shared" si="35"/>
-        <v>WINTER BREAK</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="118">
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="119">
         <v>9</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="95">
+      <c r="B30" s="125"/>
+      <c r="C30" s="90">
         <f>I15 + 1</f>
         <v>8</v>
       </c>
@@ -3104,213 +2481,106 @@
         <v>9</v>
       </c>
       <c r="E30" s="22">
-        <f t="shared" ref="E30:I30" si="36">D30 + 1</f>
+        <f t="shared" ref="E30:I30" si="5">D30 + 1</f>
         <v>10</v>
       </c>
       <c r="F30" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="G30" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="H30" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="I30" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="K30" s="118">
-        <v>9</v>
-      </c>
-      <c r="L30" s="124"/>
-      <c r="M30" s="95">
-        <f>S15 + 1</f>
+    </row>
+    <row r="31" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="120"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="91" t="str">
+        <f>H29</f>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="71"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="120">
         <v>8</v>
       </c>
-      <c r="N30" s="22">
-        <f>M30 + 1</f>
-        <v>9</v>
-      </c>
-      <c r="O30" s="22">
-        <f t="shared" ref="O30" si="37">N30 + 1</f>
-        <v>10</v>
-      </c>
-      <c r="P30" s="22">
-        <f t="shared" ref="P30" si="38">O30 + 1</f>
-        <v>11</v>
-      </c>
-      <c r="Q30" s="22">
-        <f t="shared" ref="Q30" si="39">P30 + 1</f>
-        <v>12</v>
-      </c>
-      <c r="R30" s="22">
-        <f t="shared" ref="R30" si="40">Q30 + 1</f>
-        <v>13</v>
-      </c>
-      <c r="S30" s="23">
-        <f t="shared" ref="S30" si="41">R30 + 1</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="50" t="str">
-        <f>I29</f>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="38"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="50" t="str">
-        <f>S29</f>
-        <v>WINTER BREAK</v>
-      </c>
-      <c r="N31" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="P31" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S31" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="119">
-        <v>8</v>
-      </c>
-      <c r="B32" s="124"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="25">
         <f>I30 + 1</f>
         <v>15</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="22">
         <f>C32 + 1</f>
         <v>16</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" ref="E32:I32" si="42">D32 + 1</f>
+        <f t="shared" ref="E32:I32" si="6">D32 + 1</f>
         <v>17</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I32" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="K32" s="119">
-        <v>8</v>
-      </c>
-      <c r="L32" s="124"/>
-      <c r="M32" s="25">
-        <f>S30 + 1</f>
-        <v>15</v>
-      </c>
-      <c r="N32" s="7">
-        <f>M32 + 1</f>
+    </row>
+    <row r="33" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="120"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="7">
-        <f t="shared" ref="O32" si="43">N32 + 1</f>
-        <v>17</v>
-      </c>
-      <c r="P32" s="7">
-        <f t="shared" ref="P32" si="44">O32 + 1</f>
-        <v>18</v>
-      </c>
-      <c r="Q32" s="7">
-        <f t="shared" ref="Q32" si="45">P32 + 1</f>
-        <v>19</v>
-      </c>
-      <c r="R32" s="7">
-        <f t="shared" ref="R32" si="46">Q32 + 1</f>
-        <v>20</v>
-      </c>
-      <c r="S32" s="11">
-        <f t="shared" ref="S32" si="47">R32 + 1</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="96" t="s">
+        <v>53</v>
+      </c>
       <c r="F33" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S33" s="48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="119">
+        <v>35</v>
+      </c>
+      <c r="I33" s="71"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="120">
         <v>7</v>
       </c>
-      <c r="B34" s="124"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="10">
         <f>I32 + 1</f>
         <v>22</v>
@@ -3320,498 +2590,265 @@
         <v>23</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" ref="E34:I36" si="48">D34 + 1</f>
+        <f t="shared" ref="E34:I36" si="7">D34 + 1</f>
         <v>24</v>
       </c>
       <c r="F34" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="I34" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="K34" s="119">
-        <v>7</v>
-      </c>
-      <c r="L34" s="124"/>
-      <c r="M34" s="10">
-        <f>S32 + 1</f>
-        <v>22</v>
-      </c>
-      <c r="N34" s="22">
-        <f>M34 + 1</f>
-        <v>23</v>
-      </c>
-      <c r="O34" s="7">
-        <f t="shared" ref="O34:O36" si="49">N34 + 1</f>
-        <v>24</v>
-      </c>
-      <c r="P34" s="22">
-        <f t="shared" ref="P34:P36" si="50">O34 + 1</f>
-        <v>25</v>
-      </c>
-      <c r="Q34" s="7">
-        <f t="shared" ref="Q34:Q36" si="51">P34 + 1</f>
-        <v>26</v>
-      </c>
-      <c r="R34" s="7">
-        <f t="shared" ref="R34:R36" si="52">Q34 + 1</f>
-        <v>27</v>
-      </c>
-      <c r="S34" s="11">
-        <f t="shared" ref="S34:S36" si="53">R34 + 1</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="119"/>
-      <c r="B35" s="124"/>
+    </row>
+    <row r="35" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="120"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="85"/>
+      <c r="D35" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="96" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="85"/>
-      <c r="H35" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="74"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="124"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="O35" s="85"/>
-      <c r="P35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="S35" s="74"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="119">
+        <v>18</v>
+      </c>
+      <c r="G35" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="42"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="120">
         <v>6</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="98">
+      <c r="B36" s="74"/>
+      <c r="C36" s="93">
         <f>I34 + 1</f>
         <v>29</v>
       </c>
-      <c r="D36" s="98">
+      <c r="D36" s="7">
         <f>C36+1</f>
         <v>30</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="F36" s="79">
+      <c r="F36" s="76">
         <v>1</v>
       </c>
-      <c r="G36" s="105">
-        <f t="shared" si="48"/>
+      <c r="G36" s="100">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="H36" s="87">
-        <f t="shared" si="48"/>
+      <c r="H36" s="83">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="I36" s="106">
+      <c r="I36" s="101">
         <f>H36 + 1</f>
         <v>4</v>
       </c>
-      <c r="K36" s="119">
-        <v>6</v>
-      </c>
-      <c r="L36" s="77"/>
-      <c r="M36" s="98">
-        <f>S34 + 1</f>
-        <v>29</v>
-      </c>
-      <c r="N36" s="98">
-        <f>M36+1</f>
-        <v>30</v>
-      </c>
-      <c r="O36" s="11">
-        <f t="shared" ref="O36:O38" si="54">N36 + 1</f>
-        <v>31</v>
-      </c>
-      <c r="P36" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="105">
-        <f t="shared" ref="Q36:Q38" si="55">P36 + 1</f>
-        <v>2</v>
-      </c>
-      <c r="R36" s="87">
-        <f t="shared" ref="R36:R38" si="56">Q36 + 1</f>
-        <v>3</v>
-      </c>
-      <c r="S36" s="106">
-        <f>R36 + 1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="121"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="99" t="s">
+    </row>
+    <row r="37" spans="1:9" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="122"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="41"/>
+      <c r="H37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="44"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="S37" s="44"/>
-    </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="120">
+      <c r="I37" s="42"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="121">
         <v>5</v>
       </c>
-      <c r="B38" s="128" t="s">
+      <c r="B38" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="43">
         <f>I36 + 1</f>
         <v>5</v>
       </c>
-      <c r="D38" s="107">
+      <c r="D38" s="102">
         <f>C38 + 1</f>
         <v>6</v>
       </c>
       <c r="E38" s="19">
-        <f t="shared" ref="E38:I38" si="57">D38 + 1</f>
+        <f t="shared" ref="E38:I38" si="8">D38 + 1</f>
         <v>7</v>
       </c>
       <c r="F38" s="19">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G38" s="51">
-        <f t="shared" si="57"/>
+      <c r="G38" s="48">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="H38" s="51">
-        <f t="shared" si="57"/>
+      <c r="H38" s="48">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="I38" s="55">
-        <f t="shared" si="57"/>
+      <c r="I38" s="52">
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="K38" s="120">
-        <v>5</v>
-      </c>
-      <c r="L38" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="45">
-        <f>S36 + 1</f>
-        <v>5</v>
-      </c>
-      <c r="N38" s="107">
-        <f>M38 + 1</f>
+    </row>
+    <row r="39" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="120"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="106"/>
+      <c r="F39" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="O38" s="19">
-        <f t="shared" ref="O38" si="58">N38 + 1</f>
-        <v>7</v>
-      </c>
-      <c r="P38" s="19">
-        <f t="shared" ref="P38" si="59">O38 + 1</f>
-        <v>8</v>
-      </c>
-      <c r="Q38" s="51">
-        <f t="shared" ref="Q38" si="60">P38 + 1</f>
-        <v>9</v>
-      </c>
-      <c r="R38" s="51">
-        <f t="shared" ref="R38" si="61">Q38 + 1</f>
-        <v>10</v>
-      </c>
-      <c r="S38" s="55">
-        <f t="shared" ref="S38" si="62">R38 + 1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="113"/>
-      <c r="F39" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="51" t="s">
+      <c r="H39" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="I39" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" s="138"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="O39" s="113"/>
-      <c r="P39" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q39" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="R39" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="S39" s="48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="119">
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="120">
         <v>4</v>
       </c>
-      <c r="B40" s="129"/>
-      <c r="C40" s="51">
+      <c r="B40" s="130"/>
+      <c r="C40" s="48">
         <f>I38 + 1</f>
         <v>12</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="48">
         <f>C40 + 1</f>
         <v>13</v>
       </c>
       <c r="E40" s="16">
-        <f t="shared" ref="E40:I40" si="63">D40 + 1</f>
+        <f t="shared" ref="E40:I40" si="9">D40 + 1</f>
         <v>14</v>
       </c>
       <c r="F40" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="G40" s="43">
-        <f t="shared" si="63"/>
+      <c r="G40" s="41">
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="H40" s="43">
-        <f t="shared" si="63"/>
+      <c r="H40" s="41">
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="I40" s="44">
-        <f t="shared" si="63"/>
+      <c r="I40" s="42">
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="K40" s="119">
-        <v>4</v>
-      </c>
-      <c r="L40" s="129"/>
-      <c r="M40" s="51">
-        <f>S38 + 1</f>
-        <v>12</v>
-      </c>
-      <c r="N40" s="51">
-        <f>M40 + 1</f>
-        <v>13</v>
-      </c>
-      <c r="O40" s="16">
-        <f t="shared" ref="O40" si="64">N40 + 1</f>
-        <v>14</v>
-      </c>
-      <c r="P40" s="19">
-        <f t="shared" ref="P40" si="65">O40 + 1</f>
-        <v>15</v>
-      </c>
-      <c r="Q40" s="43">
-        <f t="shared" ref="Q40" si="66">P40 + 1</f>
-        <v>16</v>
-      </c>
-      <c r="R40" s="43">
-        <f t="shared" ref="R40" si="67">Q40 + 1</f>
-        <v>17</v>
-      </c>
-      <c r="S40" s="44">
-        <f t="shared" ref="S40" si="68">R40 + 1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
-      <c r="B41" s="129"/>
-      <c r="C41" s="50" t="s">
+    </row>
+    <row r="41" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="120"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="60" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="15"/>
-      <c r="F41" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="101" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="N41" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="O41" s="15"/>
-      <c r="P41" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q41" s="101" t="s">
-        <v>59</v>
-      </c>
-      <c r="R41" s="43"/>
-      <c r="S41" s="44"/>
-    </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="119">
+      <c r="F41" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="42"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="120">
         <v>3</v>
       </c>
-      <c r="B42" s="129"/>
-      <c r="C42" s="45">
+      <c r="B42" s="130"/>
+      <c r="C42" s="43">
         <f>I40 + 1</f>
         <v>19</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="41">
         <f>C42 + 1</f>
         <v>20</v>
       </c>
       <c r="E42" s="16">
-        <f t="shared" ref="E42:I44" si="69">D42 + 1</f>
+        <f t="shared" ref="E42:I44" si="10">D42 + 1</f>
         <v>21</v>
       </c>
       <c r="F42" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="G42" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="H42" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="K42" s="119">
-        <v>3</v>
-      </c>
-      <c r="L42" s="129"/>
-      <c r="M42" s="45">
-        <f>S40 + 1</f>
-        <v>19</v>
-      </c>
-      <c r="N42" s="43">
-        <f>M42 + 1</f>
-        <v>20</v>
-      </c>
-      <c r="O42" s="16">
-        <f t="shared" ref="O42:O44" si="70">N42 + 1</f>
-        <v>21</v>
-      </c>
-      <c r="P42" s="16">
-        <f t="shared" ref="P42:P44" si="71">O42 + 1</f>
-        <v>22</v>
-      </c>
-      <c r="Q42" s="16">
-        <f t="shared" ref="Q42:Q44" si="72">P42 + 1</f>
-        <v>23</v>
-      </c>
-      <c r="R42" s="16">
-        <f t="shared" ref="R42:R44" si="73">Q42 + 1</f>
-        <v>24</v>
-      </c>
-      <c r="S42" s="20">
-        <f t="shared" ref="S42:S44" si="74">R42 + 1</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="119"/>
-      <c r="B43" s="129"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="15"/>
+    </row>
+    <row r="43" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="120"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="92" t="s">
+        <v>36</v>
+      </c>
       <c r="E43" s="15"/>
-      <c r="F43" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="92"/>
-      <c r="H43" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="I43" s="89"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="S43" s="89"/>
-    </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="119">
+      <c r="F43" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="87"/>
+      <c r="H43" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="85"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="120">
         <v>2</v>
       </c>
-      <c r="B44" s="129"/>
+      <c r="B44" s="130"/>
       <c r="C44" s="21">
         <f>I42 + 1</f>
         <v>26</v>
@@ -3820,196 +2857,103 @@
         <f>C44 + 1</f>
         <v>27</v>
       </c>
-      <c r="E44" s="90">
-        <f t="shared" si="69"/>
+      <c r="E44" s="86">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="F44" s="90">
-        <f t="shared" ref="F44" si="75">E44 + 1</f>
+      <c r="F44" s="86">
+        <f t="shared" ref="F44" si="11">E44 + 1</f>
         <v>29</v>
       </c>
       <c r="G44" s="20">
-        <f t="shared" ref="G44" si="76">F44 + 1</f>
+        <f t="shared" ref="G44" si="12">F44 + 1</f>
         <v>30</v>
       </c>
-      <c r="H44" s="104">
+      <c r="H44" s="99">
         <v>1</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="K44" s="119">
-        <v>2</v>
-      </c>
-      <c r="L44" s="129"/>
-      <c r="M44" s="21">
-        <f>S42 + 1</f>
-        <v>26</v>
-      </c>
-      <c r="N44" s="16">
-        <f>M44 + 1</f>
-        <v>27</v>
-      </c>
-      <c r="O44" s="90">
-        <f t="shared" ref="O44:O46" si="77">N44 + 1</f>
-        <v>28</v>
-      </c>
-      <c r="P44" s="90">
-        <f t="shared" ref="P44" si="78">O44 + 1</f>
-        <v>29</v>
-      </c>
-      <c r="Q44" s="20">
-        <f t="shared" ref="Q44" si="79">P44 + 1</f>
-        <v>30</v>
-      </c>
-      <c r="R44" s="104">
-        <v>1</v>
-      </c>
-      <c r="S44" s="6">
-        <f t="shared" ref="S44:S46" si="80">R44 + 1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="121"/>
-      <c r="B45" s="129"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="108"/>
-      <c r="F45" s="134" t="s">
+    </row>
+    <row r="45" spans="1:9" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="122"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="132"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="107"/>
       <c r="H45" s="24" t="s">
         <v>7</v>
       </c>
       <c r="I45" s="9"/>
-      <c r="K45" s="121"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="102"/>
-      <c r="N45" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="O45" s="108"/>
-      <c r="P45" s="134" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q45" s="132"/>
-      <c r="R45" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="S45" s="9"/>
-    </row>
-    <row r="46" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="120">
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="121">
         <v>1</v>
       </c>
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="38">
         <f>I44 + 1</f>
         <v>3</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" ref="D46:I46" si="81">C46 + 1</f>
+        <f t="shared" ref="D46:I46" si="13">C46 + 1</f>
         <v>4</v>
       </c>
-      <c r="E46" s="104">
-        <f t="shared" si="81"/>
+      <c r="E46" s="99">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="F46" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G46" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="H46" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="I46" s="23">
-        <f t="shared" si="81"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="K46" s="120">
-        <v>1</v>
-      </c>
-      <c r="L46" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="40">
-        <f>S44 + 1</f>
-        <v>3</v>
-      </c>
-      <c r="N46" s="5">
-        <f t="shared" ref="N46" si="82">M46 + 1</f>
-        <v>4</v>
-      </c>
-      <c r="O46" s="104">
-        <f t="shared" ref="O46" si="83">N46 + 1</f>
-        <v>5</v>
-      </c>
-      <c r="P46" s="22">
-        <f t="shared" ref="P46" si="84">O46 + 1</f>
-        <v>6</v>
-      </c>
-      <c r="Q46" s="22">
-        <f t="shared" ref="Q46" si="85">P46 + 1</f>
+    </row>
+    <row r="47" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="120"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R46" s="22">
-        <f t="shared" ref="R46" si="86">Q46 + 1</f>
-        <v>8</v>
-      </c>
-      <c r="S46" s="23">
-        <f t="shared" ref="S46" si="87">R46 + 1</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="119"/>
-      <c r="B47" s="124"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="46"/>
+      <c r="E47" s="44"/>
       <c r="F47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="46"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="48" t="s">
+      <c r="G47" s="44"/>
+      <c r="H47" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="K47" s="119"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O47" s="46"/>
-      <c r="P47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="136" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="124"/>
+      <c r="B48" s="125"/>
       <c r="C48" s="25">
         <f>I46 + 1</f>
         <v>10</v>
@@ -4019,119 +2963,46 @@
         <v>11</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" ref="E48:I48" si="88">D48 + 1</f>
+        <f t="shared" ref="E48:I48" si="14">D48 + 1</f>
         <v>12</v>
       </c>
       <c r="F48" s="22">
-        <f t="shared" si="88"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="I48" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="K48" s="136" t="s">
-        <v>76</v>
-      </c>
-      <c r="L48" s="124"/>
-      <c r="M48" s="25">
-        <f>S46 + 1</f>
-        <v>10</v>
-      </c>
-      <c r="N48" s="22">
-        <f>M48 + 1</f>
-        <v>11</v>
-      </c>
-      <c r="O48" s="7">
-        <f t="shared" ref="O48" si="89">N48 + 1</f>
-        <v>12</v>
-      </c>
-      <c r="P48" s="22">
-        <f t="shared" ref="P48" si="90">O48 + 1</f>
-        <v>13</v>
-      </c>
-      <c r="Q48" s="7">
-        <f t="shared" ref="Q48" si="91">P48 + 1</f>
-        <v>14</v>
-      </c>
-      <c r="R48" s="7">
-        <f t="shared" ref="R48" si="92">Q48 + 1</f>
-        <v>15</v>
-      </c>
-      <c r="S48" s="11">
-        <f t="shared" ref="S48" si="93">R48 + 1</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="137"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="12"/>
+    </row>
+    <row r="49" spans="1:9" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="133"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="69" t="s">
+        <v>55</v>
+      </c>
       <c r="D49" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="72" t="s">
-        <v>61</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E49" s="26"/>
       <c r="F49" s="29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="12"/>
       <c r="I49" s="13"/>
-      <c r="K49" s="137"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O49" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="P49" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="13"/>
-    </row>
-    <row r="50" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L45"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L29:L35"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
+  <mergeCells count="26">
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="A13:A14"/>

--- a/CS320-Spring2020Calendar.xlsx
+++ b/CS320-Spring2020Calendar.xlsx
@@ -89,24 +89,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lecture 2:
-HTML &amp; CSS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lab 1: HTML and CSS assigned</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Lecture 13: Relational Databases
 </t>
     </r>
@@ -281,9 +263,6 @@
 A11: Team Project
 Final Self/Peer Evaluations due
 both 7:00 am (Marmoset)</t>
-  </si>
-  <si>
-    <t>A06: Domain Analysis due</t>
   </si>
   <si>
     <r>
@@ -331,52 +310,7 @@
     <t>Work Ethic Lecture</t>
   </si>
   <si>
-    <t>CS320: SW Engineering - Spring 2020 Schedule
-(as of 1-14-2020, subject to change)</t>
-  </si>
-  <si>
     <t>Final Presentation &amp; Demo</t>
-  </si>
-  <si>
-    <t>Web
-Applications II</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Web
-Applications I
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lab 2: Web Applications
-assigned</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lecture 4: Web Applications
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Git Lab: Part I
-due</t>
-    </r>
   </si>
   <si>
     <t>Lab 3:
@@ -438,10 +372,79 @@
     </r>
   </si>
   <si>
-    <t>Lab 2: Web
-Application due
-7:00 am
+    <t>Web
+Applications II
+Web Applications Labs Review</t>
+  </si>
+  <si>
+    <t>Lab 2a: Web
+Applications
+due 7:00 am
 (Marmoset)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lecture 4: Web Applications
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Git Lab: Part I
+due
+(in class)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web
+Applications I
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lab 2a: Web Applications
+(assigned)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lecture 2:
+HTML &amp; CSS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lab 1: HTML &amp; CSS (assigned)</t>
+    </r>
+  </si>
+  <si>
+    <t>A06: Domain Analysis due
+(Google Doc)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2020 Schedule
+(as of 1-15-2020, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -1434,32 +1437,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1467,6 +1449,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1474,21 +1492,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1797,40 +1800,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="117"/>
+      <c r="A1" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -1856,10 +1859,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121">
+      <c r="A3" s="122">
         <v>16</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="117" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="49">
@@ -1892,7 +1895,7 @@
     </row>
     <row r="4" spans="1:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="120"/>
-      <c r="B4" s="125"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
@@ -1907,7 +1910,7 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="80" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I4" s="84"/>
     </row>
@@ -1915,7 +1918,7 @@
       <c r="A5" s="120">
         <v>15</v>
       </c>
-      <c r="B5" s="125"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>26</v>
@@ -1945,31 +1948,31 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="122"/>
-      <c r="B6" s="125"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E6" s="81"/>
       <c r="F6" s="112" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="108" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I6" s="111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121">
+      <c r="A7" s="122">
         <v>14</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="131" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="82">
@@ -2002,29 +2005,29 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="127"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119">
+      <c r="A9" s="130">
         <v>13</v>
       </c>
-      <c r="B9" s="127"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="18">
         <f>I7 + 1</f>
         <v>9</v>
@@ -2056,20 +2059,20 @@
     </row>
     <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120"/>
-      <c r="B10" s="127"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="46" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="17"/>
     </row>
@@ -2077,7 +2080,7 @@
       <c r="A11" s="120">
         <v>12</v>
       </c>
-      <c r="B11" s="127"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="21">
         <f>I9 + 1</f>
         <v>16</v>
@@ -2109,18 +2112,18 @@
     </row>
     <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="120"/>
-      <c r="B12" s="127"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="43"/>
       <c r="D12" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="85"/>
     </row>
@@ -2128,7 +2131,7 @@
       <c r="A13" s="120">
         <v>11</v>
       </c>
-      <c r="B13" s="127"/>
+      <c r="B13" s="132"/>
       <c r="C13" s="21">
         <f>I11 + 1</f>
         <v>23</v>
@@ -2159,29 +2162,29 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="123"/>
-      <c r="B14" s="127"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="43"/>
       <c r="D14" s="105" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E14" s="87"/>
       <c r="F14" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="103"/>
       <c r="H14" s="109" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121">
+      <c r="A15" s="122">
         <v>10</v>
       </c>
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="131" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="49">
@@ -2212,9 +2215,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="128"/>
+    <row r="16" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="123"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="54" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -2240,7 +2243,7 @@
         <v>WINTER BREAK</v>
       </c>
       <c r="I16" s="113" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2259,7 +2262,7 @@
       <c r="B18" s="31"/>
       <c r="D18" s="34"/>
       <c r="E18" s="70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -2271,7 +2274,7 @@
       <c r="B19" s="36"/>
       <c r="D19" s="30"/>
       <c r="E19" s="64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -2283,7 +2286,7 @@
       <c r="B20" s="31"/>
       <c r="D20" s="34"/>
       <c r="E20" s="65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -2295,7 +2298,7 @@
       <c r="B21" s="31"/>
       <c r="D21" s="34"/>
       <c r="E21" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
@@ -2307,7 +2310,7 @@
       <c r="B22" s="31"/>
       <c r="D22" s="34"/>
       <c r="E22" s="67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -2320,7 +2323,7 @@
       <c r="C23" s="62"/>
       <c r="D23" s="34"/>
       <c r="E23" s="68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -2350,19 +2353,19 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="32" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="115" t="str">
+      <c r="A26" s="126" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2020 Schedule
-(as of 1-14-2020, subject to change)</v>
-      </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="117"/>
+(as of 1-15-2020, subject to change)</v>
+      </c>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="128"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
@@ -2400,7 +2403,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="118">
+      <c r="A28" s="129">
         <v>10</v>
       </c>
       <c r="B28" s="73"/>
@@ -2433,9 +2436,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
-      <c r="B29" s="125" t="s">
+    <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="130"/>
+      <c r="B29" s="118" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="47" t="str">
@@ -2464,14 +2467,15 @@
       </c>
       <c r="I29" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>A06: Domain Analysis due</v>
+        <v>A06: Domain Analysis due
+(Google Doc)</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="119">
+      <c r="A30" s="130">
         <v>9</v>
       </c>
-      <c r="B30" s="125"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="90">
         <f>I15 + 1</f>
         <v>8</v>
@@ -2503,21 +2507,21 @@
     </row>
     <row r="31" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="120"/>
-      <c r="B31" s="125"/>
+      <c r="B31" s="118"/>
       <c r="C31" s="91" t="str">
         <f>H29</f>
         <v>WINTER BREAK</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="105" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I31" s="71"/>
     </row>
@@ -2525,7 +2529,7 @@
       <c r="A32" s="120">
         <v>8</v>
       </c>
-      <c r="B32" s="125"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="25">
         <f>I30 + 1</f>
         <v>15</v>
@@ -2557,22 +2561,22 @@
     </row>
     <row r="33" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="120"/>
-      <c r="B33" s="125"/>
+      <c r="B33" s="118"/>
       <c r="C33" s="96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I33" s="71"/>
     </row>
@@ -2580,7 +2584,7 @@
       <c r="A34" s="120">
         <v>7</v>
       </c>
-      <c r="B34" s="125"/>
+      <c r="B34" s="118"/>
       <c r="C34" s="10">
         <f>I32 + 1</f>
         <v>22</v>
@@ -2612,19 +2616,19 @@
     </row>
     <row r="35" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="120"/>
-      <c r="B35" s="125"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="10"/>
       <c r="D35" s="98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>19</v>
@@ -2665,17 +2669,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="122"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="75"/>
       <c r="C37" s="110"/>
       <c r="D37" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="72" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G37" s="41"/>
       <c r="H37" s="94" t="s">
@@ -2684,10 +2688,10 @@
       <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="121">
+      <c r="A38" s="122">
         <v>5</v>
       </c>
-      <c r="B38" s="129" t="s">
+      <c r="B38" s="115" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="43">
@@ -2721,10 +2725,10 @@
     </row>
     <row r="39" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="120"/>
-      <c r="B39" s="130"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="43"/>
       <c r="D39" s="72" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E39" s="106"/>
       <c r="F39" s="27" t="s">
@@ -2744,7 +2748,7 @@
       <c r="A40" s="120">
         <v>4</v>
       </c>
-      <c r="B40" s="130"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="48">
         <f>I38 + 1</f>
         <v>12</v>
@@ -2774,9 +2778,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="120"/>
-      <c r="B41" s="130"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
@@ -2797,7 +2801,7 @@
       <c r="A42" s="120">
         <v>3</v>
       </c>
-      <c r="B42" s="130"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="43">
         <f>I40 + 1</f>
         <v>19</v>
@@ -2829,14 +2833,14 @@
     </row>
     <row r="43" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="120"/>
-      <c r="B43" s="130"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="43"/>
       <c r="D43" s="92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="95" t="s">
@@ -2848,7 +2852,7 @@
       <c r="A44" s="120">
         <v>2</v>
       </c>
-      <c r="B44" s="130"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="21">
         <f>I42 + 1</f>
         <v>26</v>
@@ -2877,9 +2881,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="122"/>
-      <c r="B45" s="130"/>
+    <row r="45" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="123"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="97"/>
       <c r="D45" s="109" t="s">
         <v>7</v>
@@ -2895,10 +2899,10 @@
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="121">
+      <c r="A46" s="122">
         <v>1</v>
       </c>
-      <c r="B46" s="124" t="s">
+      <c r="B46" s="117" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="38">
@@ -2930,9 +2934,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="120"/>
-      <c r="B47" s="125"/>
+      <c r="B47" s="118"/>
       <c r="C47" s="39"/>
       <c r="D47" s="7" t="s">
         <v>7</v>
@@ -2943,17 +2947,17 @@
       </c>
       <c r="G47" s="44"/>
       <c r="H47" s="114" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="125"/>
+      <c r="A48" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="118"/>
       <c r="C48" s="25">
         <f>I46 + 1</f>
         <v>10</v>
@@ -2984,17 +2988,17 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="133"/>
-      <c r="B49" s="131"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="12"/>
@@ -3003,6 +3007,19 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B29:B35"/>
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="A13:A14"/>
@@ -3016,21 +3033,8 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B29:B35"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>

--- a/CS320-Spring2020Calendar.xlsx
+++ b/CS320-Spring2020Calendar.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="315" yWindow="-165" windowWidth="13305" windowHeight="13905"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -219,11 +224,6 @@
 103: 3:00-5:00
 A08: Team Presentation and Demonstration
 (in class)</t>
-  </si>
-  <si>
-    <t>Lab 1: HTML &amp; CSS  due
-7:00 am
-(Marmoset)</t>
   </si>
   <si>
     <t>A01: Team Project Proposal due
@@ -443,8 +443,15 @@
 (Google Doc)</t>
   </si>
   <si>
+    <t>Lab 1: HTML &amp; CSS  due
+7:00 am
+MONDAY ---&gt;
+(1-27-20)
+(Marmoset)</t>
+  </si>
+  <si>
     <t>CS320: SW Engineering - Spring 2020 Schedule
-(as of 1-15-2020, subject to change)</t>
+(as of 1-24-2020, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1435,6 +1442,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1554,7 +1564,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1589,7 +1599,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1798,16 +1808,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
@@ -1819,20 +1832,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="129"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="115" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1"/>
@@ -1859,10 +1872,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122">
+      <c r="A3" s="123">
         <v>16</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="118" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="49">
@@ -1894,8 +1907,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
-      <c r="B4" s="118"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
@@ -1910,15 +1923,15 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="84"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120">
+      <c r="A5" s="121">
         <v>15</v>
       </c>
-      <c r="B5" s="118"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>26</v>
@@ -1948,31 +1961,31 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="123"/>
-      <c r="B6" s="118"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="79" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="81"/>
       <c r="F6" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="122">
+      <c r="A7" s="123">
         <v>14</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="132" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="82">
@@ -2005,17 +2018,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="132"/>
+      <c r="A8" s="122"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="72" t="s">
@@ -2024,10 +2037,10 @@
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="130">
+      <c r="A9" s="131">
         <v>13</v>
       </c>
-      <c r="B9" s="132"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="18">
         <f>I7 + 1</f>
         <v>9</v>
@@ -2058,10 +2071,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
-      <c r="B10" s="132"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>37</v>
@@ -2077,10 +2090,10 @@
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120">
+      <c r="A11" s="121">
         <v>12</v>
       </c>
-      <c r="B11" s="132"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="21">
         <f>I9 + 1</f>
         <v>16</v>
@@ -2111,8 +2124,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="132"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="43"/>
       <c r="D12" s="37" t="s">
         <v>36</v>
@@ -2128,10 +2141,10 @@
       <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120">
+      <c r="A13" s="121">
         <v>11</v>
       </c>
-      <c r="B13" s="132"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="21">
         <f>I11 + 1</f>
         <v>23</v>
@@ -2162,11 +2175,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="121"/>
-      <c r="B14" s="132"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="43"/>
       <c r="D14" s="105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="87"/>
       <c r="F14" s="40" t="s">
@@ -2181,10 +2194,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122">
+      <c r="A15" s="123">
         <v>10</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="132" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="49">
@@ -2216,8 +2229,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123"/>
-      <c r="B16" s="133"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="54" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -2243,7 +2256,7 @@
         <v>WINTER BREAK</v>
       </c>
       <c r="I16" s="113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2353,19 +2366,19 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="32" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="126" t="str">
+      <c r="A26" s="127" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2020 Schedule
-(as of 1-15-2020, subject to change)</v>
-      </c>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
+(as of 1-24-2020, subject to change)</v>
+      </c>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="129"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
@@ -2403,7 +2416,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="129">
+      <c r="A28" s="130">
         <v>10</v>
       </c>
       <c r="B28" s="73"/>
@@ -2437,8 +2450,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
-      <c r="B29" s="118" t="s">
+      <c r="A29" s="131"/>
+      <c r="B29" s="119" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="47" t="str">
@@ -2472,10 +2485,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="130">
+      <c r="A30" s="131">
         <v>9</v>
       </c>
-      <c r="B30" s="118"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="90">
         <f>I15 + 1</f>
         <v>8</v>
@@ -2506,8 +2519,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
-      <c r="B31" s="118"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="91" t="str">
         <f>H29</f>
         <v>WINTER BREAK</v>
@@ -2521,15 +2534,15 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I31" s="71"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120">
+      <c r="A32" s="121">
         <v>8</v>
       </c>
-      <c r="B32" s="118"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="25">
         <f>I30 + 1</f>
         <v>15</v>
@@ -2560,16 +2573,16 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
-      <c r="B33" s="118"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>22</v>
@@ -2581,10 +2594,10 @@
       <c r="I33" s="71"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="120">
+      <c r="A34" s="121">
         <v>7</v>
       </c>
-      <c r="B34" s="118"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="10">
         <f>I32 + 1</f>
         <v>22</v>
@@ -2615,20 +2628,20 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="120"/>
-      <c r="B35" s="118"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="10"/>
       <c r="D35" s="98" t="s">
         <v>43</v>
       </c>
       <c r="E35" s="96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>19</v>
@@ -2636,7 +2649,7 @@
       <c r="I35" s="42"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="120">
+      <c r="A36" s="121">
         <v>6</v>
       </c>
       <c r="B36" s="74"/>
@@ -2669,17 +2682,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="123"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="75"/>
       <c r="C37" s="110"/>
       <c r="D37" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G37" s="41"/>
       <c r="H37" s="94" t="s">
@@ -2688,10 +2701,10 @@
       <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="122">
+      <c r="A38" s="123">
         <v>5</v>
       </c>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="116" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="43">
@@ -2724,11 +2737,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="120"/>
-      <c r="B39" s="116"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="117"/>
       <c r="C39" s="43"/>
       <c r="D39" s="72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" s="106"/>
       <c r="F39" s="27" t="s">
@@ -2745,10 +2758,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="120">
+      <c r="A40" s="121">
         <v>4</v>
       </c>
-      <c r="B40" s="116"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="48">
         <f>I38 + 1</f>
         <v>12</v>
@@ -2779,8 +2792,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
-      <c r="B41" s="116"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
@@ -2798,10 +2811,10 @@
       <c r="I41" s="42"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="120">
+      <c r="A42" s="121">
         <v>3</v>
       </c>
-      <c r="B42" s="116"/>
+      <c r="B42" s="117"/>
       <c r="C42" s="43">
         <f>I40 + 1</f>
         <v>19</v>
@@ -2832,15 +2845,15 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="120"/>
-      <c r="B43" s="116"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="43"/>
       <c r="D43" s="92" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="95" t="s">
@@ -2849,10 +2862,10 @@
       <c r="I43" s="85"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="120">
+      <c r="A44" s="121">
         <v>2</v>
       </c>
-      <c r="B44" s="116"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="21">
         <f>I42 + 1</f>
         <v>26</v>
@@ -2882,8 +2895,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="123"/>
-      <c r="B45" s="116"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="117"/>
       <c r="C45" s="97"/>
       <c r="D45" s="109" t="s">
         <v>7</v>
@@ -2899,10 +2912,10 @@
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="122">
+      <c r="A46" s="123">
         <v>1</v>
       </c>
-      <c r="B46" s="117" t="s">
+      <c r="B46" s="118" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="38">
@@ -2935,8 +2948,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="120"/>
-      <c r="B47" s="118"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="39"/>
       <c r="D47" s="7" t="s">
         <v>7</v>
@@ -2947,17 +2960,17 @@
       </c>
       <c r="G47" s="44"/>
       <c r="H47" s="114" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="124" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="118"/>
+      <c r="A48" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="119"/>
       <c r="C48" s="25">
         <f>I46 + 1</f>
         <v>10</v>
@@ -2988,10 +3001,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
-      <c r="B49" s="119"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>45</v>
@@ -3034,8 +3047,8 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CS320-Spring2020Calendar.xlsx
+++ b/CS320-Spring2020Calendar.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="315" yWindow="-165" windowWidth="13305" windowHeight="13905"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Monday</t>
   </si>
@@ -224,16 +219,6 @@
 103: 3:00-5:00
 A08: Team Presentation and Demonstration
 (in class)</t>
-  </si>
-  <si>
-    <t>A01: Team Project Proposal due
-7:00 am
-(Google Doc)</t>
-  </si>
-  <si>
-    <t>A02: Individual Project Proposal due
-7:00 am
-(Google Doc)</t>
   </si>
   <si>
     <t>Lab 5: JDBC due
@@ -372,17 +357,6 @@
     </r>
   </si>
   <si>
-    <t>Web
-Applications II
-Web Applications Labs Review</t>
-  </si>
-  <si>
-    <t>Lab 2a: Web
-Applications
-due 7:00 am
-(Marmoset)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Lecture 4: Web Applications
 </t>
@@ -451,7 +425,51 @@
   </si>
   <si>
     <t>CS320: SW Engineering - Spring 2020 Schedule
-(as of 1-24-2020, subject to change)</t>
+(as of 2-2-2020, subject to change)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web
+Applications II
+Lab Review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A01: Team Project Proposal
+due 7:00 am
+(Google Doc)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>A02: Individual Project Proposal due 7:00 am
+(Google Doc)</t>
+  </si>
+  <si>
+    <t>Lab 2a: Web
+Applications
+due 7:00 am
+MONDAY ---&gt;
+(Marmoset)</t>
   </si>
 </sst>
 </file>
@@ -1432,9 +1450,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1446,6 +1461,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1453,56 +1510,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,7 +1582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1599,7 +1617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1813,8 +1831,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,20 +1850,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="129"/>
+      <c r="A1" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="114" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1"/>
@@ -1872,10 +1890,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123">
+      <c r="A3" s="121">
         <v>16</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="124" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="49">
@@ -1907,8 +1925,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121"/>
-      <c r="B4" s="119"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
@@ -1923,15 +1941,15 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="80" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I4" s="84"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121">
+      <c r="A5" s="120">
         <v>15</v>
       </c>
-      <c r="B5" s="119"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>26</v>
@@ -1961,31 +1979,29 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="124"/>
-      <c r="B6" s="119"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="79" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="81"/>
-      <c r="F6" s="112" t="s">
-        <v>65</v>
+      <c r="F6" s="111" t="s">
+        <v>61</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="111" t="s">
-        <v>46</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I6" s="134"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123">
+      <c r="A7" s="121">
         <v>14</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="126" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="82">
@@ -2017,18 +2033,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="133"/>
+    <row r="8" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="123"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="D8" s="105" t="s">
+        <v>67</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="72" t="s">
@@ -2037,10 +2053,10 @@
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131">
+      <c r="A9" s="119">
         <v>13</v>
       </c>
-      <c r="B9" s="133"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="18">
         <f>I7 + 1</f>
         <v>9</v>
@@ -2071,10 +2087,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="46" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>37</v>
@@ -2090,10 +2106,10 @@
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121">
+      <c r="A11" s="120">
         <v>12</v>
       </c>
-      <c r="B11" s="133"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="21">
         <f>I9 + 1</f>
         <v>16</v>
@@ -2124,8 +2140,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="43"/>
       <c r="D12" s="37" t="s">
         <v>36</v>
@@ -2141,10 +2157,10 @@
       <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="121">
+      <c r="A13" s="120">
         <v>11</v>
       </c>
-      <c r="B13" s="133"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="21">
         <f>I11 + 1</f>
         <v>23</v>
@@ -2175,11 +2191,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122"/>
-      <c r="B14" s="133"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="43"/>
       <c r="D14" s="105" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="87"/>
       <c r="F14" s="40" t="s">
@@ -2194,10 +2210,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123">
+      <c r="A15" s="121">
         <v>10</v>
       </c>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="126" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="49">
@@ -2229,8 +2245,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="124"/>
-      <c r="B16" s="134"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="54" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -2255,8 +2271,8 @@
         <f>G16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I16" s="113" t="s">
-        <v>68</v>
+      <c r="I16" s="112" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2366,19 +2382,19 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="32" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="127" t="str">
+      <c r="A26" s="115" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2020 Schedule
-(as of 1-24-2020, subject to change)</v>
-      </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="129"/>
+(as of 2-2-2020, subject to change)</v>
+      </c>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="117"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
@@ -2416,7 +2432,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="130">
+      <c r="A28" s="118">
         <v>10</v>
       </c>
       <c r="B28" s="73"/>
@@ -2450,8 +2466,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="131"/>
-      <c r="B29" s="119" t="s">
+      <c r="A29" s="119"/>
+      <c r="B29" s="125" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="47" t="str">
@@ -2485,10 +2501,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="131">
+      <c r="A30" s="119">
         <v>9</v>
       </c>
-      <c r="B30" s="119"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="90">
         <f>I15 + 1</f>
         <v>8</v>
@@ -2519,8 +2535,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="119"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="125"/>
       <c r="C31" s="91" t="str">
         <f>H29</f>
         <v>WINTER BREAK</v>
@@ -2534,15 +2550,15 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="105" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I31" s="71"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="121">
+      <c r="A32" s="120">
         <v>8</v>
       </c>
-      <c r="B32" s="119"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="25">
         <f>I30 + 1</f>
         <v>15</v>
@@ -2573,16 +2589,16 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="119"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="125"/>
       <c r="C33" s="96" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>22</v>
@@ -2594,10 +2610,10 @@
       <c r="I33" s="71"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="121">
+      <c r="A34" s="120">
         <v>7</v>
       </c>
-      <c r="B34" s="119"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="10">
         <f>I32 + 1</f>
         <v>22</v>
@@ -2628,20 +2644,20 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="121"/>
-      <c r="B35" s="119"/>
+      <c r="A35" s="120"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="10"/>
       <c r="D35" s="98" t="s">
         <v>43</v>
       </c>
       <c r="E35" s="96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>19</v>
@@ -2649,7 +2665,7 @@
       <c r="I35" s="42"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="121">
+      <c r="A36" s="120">
         <v>6</v>
       </c>
       <c r="B36" s="74"/>
@@ -2682,17 +2698,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="124"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="75"/>
       <c r="C37" s="110"/>
       <c r="D37" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="113" t="s">
-        <v>50</v>
+      <c r="E37" s="112" t="s">
+        <v>48</v>
       </c>
       <c r="F37" s="72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G37" s="41"/>
       <c r="H37" s="94" t="s">
@@ -2701,10 +2717,10 @@
       <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="123">
+      <c r="A38" s="121">
         <v>5</v>
       </c>
-      <c r="B38" s="116" t="s">
+      <c r="B38" s="129" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="43">
@@ -2737,11 +2753,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="117"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="130"/>
       <c r="C39" s="43"/>
       <c r="D39" s="72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E39" s="106"/>
       <c r="F39" s="27" t="s">
@@ -2758,10 +2774,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="121">
+      <c r="A40" s="120">
         <v>4</v>
       </c>
-      <c r="B40" s="117"/>
+      <c r="B40" s="130"/>
       <c r="C40" s="48">
         <f>I38 + 1</f>
         <v>12</v>
@@ -2792,8 +2808,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="117"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="130"/>
       <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
@@ -2811,10 +2827,10 @@
       <c r="I41" s="42"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="121">
+      <c r="A42" s="120">
         <v>3</v>
       </c>
-      <c r="B42" s="117"/>
+      <c r="B42" s="130"/>
       <c r="C42" s="43">
         <f>I40 + 1</f>
         <v>19</v>
@@ -2845,15 +2861,15 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="121"/>
-      <c r="B43" s="117"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="130"/>
       <c r="C43" s="43"/>
       <c r="D43" s="92" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="95" t="s">
@@ -2862,10 +2878,10 @@
       <c r="I43" s="85"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121">
+      <c r="A44" s="120">
         <v>2</v>
       </c>
-      <c r="B44" s="117"/>
+      <c r="B44" s="130"/>
       <c r="C44" s="21">
         <f>I42 + 1</f>
         <v>26</v>
@@ -2895,8 +2911,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="124"/>
-      <c r="B45" s="117"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="130"/>
       <c r="C45" s="97"/>
       <c r="D45" s="109" t="s">
         <v>7</v>
@@ -2912,10 +2928,10 @@
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="123">
+      <c r="A46" s="121">
         <v>1</v>
       </c>
-      <c r="B46" s="118" t="s">
+      <c r="B46" s="124" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="38">
@@ -2948,8 +2964,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="121"/>
-      <c r="B47" s="119"/>
+      <c r="A47" s="120"/>
+      <c r="B47" s="125"/>
       <c r="C47" s="39"/>
       <c r="D47" s="7" t="s">
         <v>7</v>
@@ -2959,18 +2975,18 @@
         <v>7</v>
       </c>
       <c r="G47" s="44"/>
-      <c r="H47" s="114" t="s">
-        <v>59</v>
+      <c r="H47" s="113" t="s">
+        <v>57</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="119"/>
+      <c r="A48" s="132" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="125"/>
       <c r="C48" s="25">
         <f>I46 + 1</f>
         <v>10</v>
@@ -3001,10 +3017,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="126"/>
-      <c r="B49" s="120"/>
+      <c r="A49" s="133"/>
+      <c r="B49" s="131"/>
       <c r="C49" s="69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>45</v>
@@ -3020,6 +3036,19 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
@@ -3033,19 +3062,6 @@
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B29:B35"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2020Calendar.xlsx
+++ b/CS320-Spring2020Calendar.xlsx
@@ -424,10 +424,6 @@
 (Marmoset)</t>
   </si>
   <si>
-    <t>CS320: SW Engineering - Spring 2020 Schedule
-(as of 2-2-2020, subject to change)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Web
 Applications II
@@ -470,6 +466,10 @@
 due 7:00 am
 MONDAY ---&gt;
 (Marmoset)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2020 Schedule
+(as of 3-5-2020, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -1462,32 +1462,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1495,6 +1477,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1503,24 +1521,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1831,8 +1831,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,17 +1850,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="117"/>
+      <c r="A1" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="129"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
@@ -1890,10 +1890,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121">
+      <c r="A3" s="123">
         <v>16</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="118" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="49">
@@ -1925,8 +1925,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
-      <c r="B4" s="125"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
@@ -1946,10 +1946,10 @@
       <c r="I4" s="84"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120">
+      <c r="A5" s="121">
         <v>15</v>
       </c>
-      <c r="B5" s="125"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>26</v>
@@ -1979,8 +1979,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="122"/>
-      <c r="B6" s="125"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="79" t="s">
         <v>65</v>
       </c>
@@ -1995,13 +1995,13 @@
       <c r="H6" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="134"/>
+      <c r="I6" s="115"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121">
+      <c r="A7" s="123">
         <v>14</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="132" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="82">
@@ -2034,13 +2034,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="127"/>
+      <c r="A8" s="122"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
@@ -2053,10 +2053,10 @@
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119">
+      <c r="A9" s="131">
         <v>13</v>
       </c>
-      <c r="B9" s="127"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="18">
         <f>I7 + 1</f>
         <v>9</v>
@@ -2087,10 +2087,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
-      <c r="B10" s="127"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>37</v>
@@ -2106,10 +2106,10 @@
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120">
+      <c r="A11" s="121">
         <v>12</v>
       </c>
-      <c r="B11" s="127"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="21">
         <f>I9 + 1</f>
         <v>16</v>
@@ -2140,8 +2140,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="127"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="43"/>
       <c r="D12" s="37" t="s">
         <v>36</v>
@@ -2157,10 +2157,10 @@
       <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120">
+      <c r="A13" s="121">
         <v>11</v>
       </c>
-      <c r="B13" s="127"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="21">
         <f>I11 + 1</f>
         <v>23</v>
@@ -2191,8 +2191,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="123"/>
-      <c r="B14" s="127"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="43"/>
       <c r="D14" s="105" t="s">
         <v>56</v>
@@ -2210,10 +2210,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121">
+      <c r="A15" s="123">
         <v>10</v>
       </c>
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="132" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="49">
@@ -2245,8 +2245,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="128"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="54" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -2382,19 +2382,19 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="32" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="115" t="str">
+      <c r="A26" s="127" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2020 Schedule
-(as of 2-2-2020, subject to change)</v>
-      </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="117"/>
+(as of 3-5-2020, subject to change)</v>
+      </c>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="129"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
@@ -2432,7 +2432,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="118">
+      <c r="A28" s="130">
         <v>10</v>
       </c>
       <c r="B28" s="73"/>
@@ -2466,8 +2466,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
-      <c r="B29" s="125" t="s">
+      <c r="A29" s="131"/>
+      <c r="B29" s="119" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="47" t="str">
@@ -2501,10 +2501,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="119">
+      <c r="A30" s="131">
         <v>9</v>
       </c>
-      <c r="B30" s="125"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="90">
         <f>I15 + 1</f>
         <v>8</v>
@@ -2535,8 +2535,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
-      <c r="B31" s="125"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="91" t="str">
         <f>H29</f>
         <v>WINTER BREAK</v>
@@ -2555,10 +2555,10 @@
       <c r="I31" s="71"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120">
+      <c r="A32" s="121">
         <v>8</v>
       </c>
-      <c r="B32" s="125"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="25">
         <f>I30 + 1</f>
         <v>15</v>
@@ -2589,11 +2589,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
-      <c r="B33" s="125"/>
-      <c r="C33" s="96" t="s">
-        <v>46</v>
-      </c>
+      <c r="A33" s="121"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="28" t="s">
         <v>16</v>
       </c>
@@ -2603,17 +2601,19 @@
       <c r="F33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="96" t="s">
+        <v>46</v>
+      </c>
       <c r="H33" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I33" s="71"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="120">
+      <c r="A34" s="121">
         <v>7</v>
       </c>
-      <c r="B34" s="125"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="10">
         <f>I32 + 1</f>
         <v>22</v>
@@ -2644,8 +2644,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="120"/>
-      <c r="B35" s="125"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="10"/>
       <c r="D35" s="98" t="s">
         <v>43</v>
@@ -2665,7 +2665,7 @@
       <c r="I35" s="42"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="120">
+      <c r="A36" s="121">
         <v>6</v>
       </c>
       <c r="B36" s="74"/>
@@ -2698,7 +2698,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="122"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="75"/>
       <c r="C37" s="110"/>
       <c r="D37" s="29" t="s">
@@ -2717,10 +2717,10 @@
       <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="121">
+      <c r="A38" s="123">
         <v>5</v>
       </c>
-      <c r="B38" s="129" t="s">
+      <c r="B38" s="116" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="43">
@@ -2753,8 +2753,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="120"/>
-      <c r="B39" s="130"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="117"/>
       <c r="C39" s="43"/>
       <c r="D39" s="72" t="s">
         <v>59</v>
@@ -2774,10 +2774,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="120">
+      <c r="A40" s="121">
         <v>4</v>
       </c>
-      <c r="B40" s="130"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="48">
         <f>I38 + 1</f>
         <v>12</v>
@@ -2808,8 +2808,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
-      <c r="B41" s="130"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
@@ -2827,10 +2827,10 @@
       <c r="I41" s="42"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="120">
+      <c r="A42" s="121">
         <v>3</v>
       </c>
-      <c r="B42" s="130"/>
+      <c r="B42" s="117"/>
       <c r="C42" s="43">
         <f>I40 + 1</f>
         <v>19</v>
@@ -2861,8 +2861,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="120"/>
-      <c r="B43" s="130"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="43"/>
       <c r="D43" s="92" t="s">
         <v>35</v>
@@ -2878,10 +2878,10 @@
       <c r="I43" s="85"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="120">
+      <c r="A44" s="121">
         <v>2</v>
       </c>
-      <c r="B44" s="130"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="21">
         <f>I42 + 1</f>
         <v>26</v>
@@ -2911,8 +2911,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="122"/>
-      <c r="B45" s="130"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="117"/>
       <c r="C45" s="97"/>
       <c r="D45" s="109" t="s">
         <v>7</v>
@@ -2928,10 +2928,10 @@
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="121">
+      <c r="A46" s="123">
         <v>1</v>
       </c>
-      <c r="B46" s="124" t="s">
+      <c r="B46" s="118" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="38">
@@ -2964,8 +2964,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="120"/>
-      <c r="B47" s="125"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="39"/>
       <c r="D47" s="7" t="s">
         <v>7</v>
@@ -2983,10 +2983,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="132" t="s">
+      <c r="A48" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="125"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="25">
         <f>I46 + 1</f>
         <v>10</v>
@@ -3017,8 +3017,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="133"/>
-      <c r="B49" s="131"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="69" t="s">
         <v>51</v>
       </c>
@@ -3036,6 +3036,19 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B29:B35"/>
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="A13:A14"/>
@@ -3049,19 +3062,6 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B29:B35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2020Calendar.xlsx
+++ b/CS320-Spring2020Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Monday</t>
   </si>
@@ -232,10 +232,6 @@
     <t>A11: Team Project Midterm
 Peer Evals due
 7:00 am
-(Marmoset)</t>
-  </si>
-  <si>
-    <t>A09: Individual Code &amp; Report due 7:00 am
 (Marmoset)</t>
   </si>
   <si>
@@ -329,15 +325,6 @@
 No Class</t>
   </si>
   <si>
-    <t>Exam Review
-and
-Library Example</t>
-  </si>
-  <si>
-    <t>Library Example Analysis and
-Review</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Lecture 12: Version Control
 (Git)
@@ -469,7 +456,21 @@
   </si>
   <si>
     <t>CS320: SW Engineering - Spring 2020 Schedule
-(as of 3-5-2020, subject to change)</t>
+(as of 3-12-2020, subject to change)</t>
+  </si>
+  <si>
+    <t>Library Project Example
+Analysis &amp;
+Review</t>
+  </si>
+  <si>
+    <t>Exam Review
+and
+Library Project Example Review</t>
+  </si>
+  <si>
+    <t>A09: Individual Project Report due 7:00 am
+(Marmoset)</t>
   </si>
 </sst>
 </file>
@@ -1435,9 +1436,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1464,6 +1462,48 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1471,56 +1511,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1831,8 +1832,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,20 +1851,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="129"/>
+      <c r="A1" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="113" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1"/>
@@ -1890,10 +1891,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123">
+      <c r="A3" s="121">
         <v>16</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="124" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="49">
@@ -1925,8 +1926,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121"/>
-      <c r="B4" s="119"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
@@ -1941,15 +1942,15 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="80" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I4" s="84"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121">
+      <c r="A5" s="120">
         <v>15</v>
       </c>
-      <c r="B5" s="119"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>26</v>
@@ -1979,29 +1980,29 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="124"/>
-      <c r="B6" s="119"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="79" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="81"/>
-      <c r="F6" s="111" t="s">
-        <v>61</v>
+      <c r="F6" s="110" t="s">
+        <v>58</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="115"/>
+      <c r="H6" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123">
+      <c r="A7" s="121">
         <v>14</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="126" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="82">
@@ -2034,17 +2035,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="72" t="s">
@@ -2053,10 +2054,10 @@
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131">
+      <c r="A9" s="119">
         <v>13</v>
       </c>
-      <c r="B9" s="133"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="18">
         <f>I7 + 1</f>
         <v>9</v>
@@ -2087,10 +2088,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>37</v>
@@ -2106,10 +2107,10 @@
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121">
+      <c r="A11" s="120">
         <v>12</v>
       </c>
-      <c r="B11" s="133"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="21">
         <f>I9 + 1</f>
         <v>16</v>
@@ -2140,8 +2141,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="43"/>
       <c r="D12" s="37" t="s">
         <v>36</v>
@@ -2157,10 +2158,10 @@
       <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="121">
+      <c r="A13" s="120">
         <v>11</v>
       </c>
-      <c r="B13" s="133"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="21">
         <f>I11 + 1</f>
         <v>23</v>
@@ -2191,18 +2192,18 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122"/>
-      <c r="B14" s="133"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="43"/>
       <c r="D14" s="105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="87"/>
       <c r="F14" s="40" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="103"/>
-      <c r="H14" s="109" t="s">
+      <c r="H14" s="108" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="57" t="s">
@@ -2210,10 +2211,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123">
+      <c r="A15" s="121">
         <v>10</v>
       </c>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="126" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="49">
@@ -2245,8 +2246,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="124"/>
-      <c r="B16" s="134"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="54" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -2271,8 +2272,8 @@
         <f>G16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I16" s="112" t="s">
-        <v>64</v>
+      <c r="I16" s="111" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2382,19 +2383,19 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="32" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="127" t="str">
+      <c r="A26" s="115" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2020 Schedule
-(as of 3-5-2020, subject to change)</v>
-      </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="129"/>
+(as of 3-12-2020, subject to change)</v>
+      </c>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="117"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
@@ -2432,7 +2433,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="130">
+      <c r="A28" s="118">
         <v>10</v>
       </c>
       <c r="B28" s="73"/>
@@ -2466,8 +2467,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="131"/>
-      <c r="B29" s="119" t="s">
+      <c r="A29" s="119"/>
+      <c r="B29" s="125" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="47" t="str">
@@ -2501,10 +2502,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="131">
+      <c r="A30" s="119">
         <v>9</v>
       </c>
-      <c r="B30" s="119"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="90">
         <f>I15 + 1</f>
         <v>8</v>
@@ -2535,8 +2536,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="119"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="125"/>
       <c r="C31" s="91" t="str">
         <f>H29</f>
         <v>WINTER BREAK</v>
@@ -2550,15 +2551,15 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I31" s="71"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="121">
+      <c r="A32" s="120">
         <v>8</v>
       </c>
-      <c r="B32" s="119"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="25">
         <f>I30 + 1</f>
         <v>15</v>
@@ -2589,15 +2590,13 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="119"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="125"/>
       <c r="C33" s="10"/>
       <c r="D33" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="96" t="s">
-        <v>49</v>
-      </c>
+      <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
         <v>22</v>
       </c>
@@ -2610,10 +2609,10 @@
       <c r="I33" s="71"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="121">
+      <c r="A34" s="120">
         <v>7</v>
       </c>
-      <c r="B34" s="119"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="10">
         <f>I32 + 1</f>
         <v>22</v>
@@ -2644,28 +2643,26 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="121"/>
-      <c r="B35" s="119"/>
+      <c r="A35" s="120"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="96" t="s">
-        <v>49</v>
-      </c>
+      <c r="D35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G35" s="69" t="s">
         <v>47</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I35" s="42"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="121">
+      <c r="A36" s="120">
         <v>6</v>
       </c>
       <c r="B36" s="74"/>
@@ -2698,17 +2695,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="124"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="75"/>
-      <c r="C37" s="110"/>
+      <c r="C37" s="109"/>
       <c r="D37" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="112" t="s">
+      <c r="E37" s="111" t="s">
         <v>48</v>
       </c>
       <c r="F37" s="72" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G37" s="41"/>
       <c r="H37" s="94" t="s">
@@ -2717,10 +2714,10 @@
       <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="123">
+      <c r="A38" s="121">
         <v>5</v>
       </c>
-      <c r="B38" s="116" t="s">
+      <c r="B38" s="129" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="43">
@@ -2753,18 +2750,18 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="117"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="130"/>
       <c r="C39" s="43"/>
-      <c r="D39" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="106"/>
+      <c r="D39" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="41"/>
       <c r="F39" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="G39" s="134" t="s">
+        <v>69</v>
       </c>
       <c r="H39" s="48" t="s">
         <v>6</v>
@@ -2774,10 +2771,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="121">
+      <c r="A40" s="120">
         <v>4</v>
       </c>
-      <c r="B40" s="117"/>
+      <c r="B40" s="130"/>
       <c r="C40" s="48">
         <f>I38 + 1</f>
         <v>12</v>
@@ -2808,8 +2805,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="117"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="130"/>
       <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
@@ -2817,7 +2814,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="15"/>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="95" t="s">
         <v>7</v>
       </c>
       <c r="G41" s="27"/>
@@ -2827,10 +2824,10 @@
       <c r="I41" s="42"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="121">
+      <c r="A42" s="120">
         <v>3</v>
       </c>
-      <c r="B42" s="117"/>
+      <c r="B42" s="130"/>
       <c r="C42" s="43">
         <f>I40 + 1</f>
         <v>19</v>
@@ -2861,15 +2858,15 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="121"/>
-      <c r="B43" s="117"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="130"/>
       <c r="C43" s="43"/>
       <c r="D43" s="92" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="95" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="95" t="s">
@@ -2878,10 +2875,10 @@
       <c r="I43" s="85"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121">
+      <c r="A44" s="120">
         <v>2</v>
       </c>
-      <c r="B44" s="117"/>
+      <c r="B44" s="130"/>
       <c r="C44" s="21">
         <f>I42 + 1</f>
         <v>26</v>
@@ -2911,27 +2908,27 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="124"/>
-      <c r="B45" s="117"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="130"/>
       <c r="C45" s="97"/>
-      <c r="D45" s="109" t="s">
+      <c r="D45" s="108" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="103"/>
-      <c r="F45" s="109" t="s">
+      <c r="F45" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="107"/>
+      <c r="G45" s="106"/>
       <c r="H45" s="24" t="s">
         <v>7</v>
       </c>
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="123">
+      <c r="A46" s="121">
         <v>1</v>
       </c>
-      <c r="B46" s="118" t="s">
+      <c r="B46" s="124" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="38">
@@ -2964,8 +2961,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="121"/>
-      <c r="B47" s="119"/>
+      <c r="A47" s="120"/>
+      <c r="B47" s="125"/>
       <c r="C47" s="39"/>
       <c r="D47" s="7" t="s">
         <v>7</v>
@@ -2975,18 +2972,18 @@
         <v>7</v>
       </c>
       <c r="G47" s="44"/>
-      <c r="H47" s="113" t="s">
-        <v>57</v>
+      <c r="H47" s="112" t="s">
+        <v>56</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="125" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="119"/>
+      <c r="A48" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="125"/>
       <c r="C48" s="25">
         <f>I46 + 1</f>
         <v>10</v>
@@ -3017,10 +3014,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="126"/>
-      <c r="B49" s="120"/>
+      <c r="A49" s="133"/>
+      <c r="B49" s="131"/>
       <c r="C49" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>45</v>
@@ -3036,6 +3033,19 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
@@ -3049,22 +3059,9 @@
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B29:B35"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="5" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CS320-Spring2020Calendar.xlsx
+++ b/CS320-Spring2020Calendar.xlsx
@@ -231,11 +231,6 @@
   <si>
     <t>A11: Team Project Midterm
 Peer Evals due
-7:00 am
-(Marmoset)</t>
-  </si>
-  <si>
-    <t>A08: Team Code and Report due 
 7:00 am
 (Marmoset)</t>
   </si>
@@ -470,6 +465,10 @@
   </si>
   <si>
     <t>A09: Individual Project Report due 7:00 am
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>A08: Team Technical Report due 7:00 am
 (Marmoset)</t>
   </si>
 </sst>
@@ -1463,32 +1462,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1496,6 +1477,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1504,24 +1521,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1832,8 +1831,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,17 +1850,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="117"/>
+      <c r="A1" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="129"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="113" t="s">
@@ -1891,10 +1890,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121">
+      <c r="A3" s="123">
         <v>16</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="118" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="49">
@@ -1926,8 +1925,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
-      <c r="B4" s="125"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
@@ -1942,15 +1941,15 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="84"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120">
+      <c r="A5" s="121">
         <v>15</v>
       </c>
-      <c r="B5" s="125"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>26</v>
@@ -1980,29 +1979,29 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="122"/>
-      <c r="B6" s="125"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="81"/>
       <c r="F6" s="110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121">
+      <c r="A7" s="123">
         <v>14</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="132" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="82">
@@ -2035,17 +2034,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="127"/>
+      <c r="A8" s="122"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="72" t="s">
@@ -2054,10 +2053,10 @@
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119">
+      <c r="A9" s="131">
         <v>13</v>
       </c>
-      <c r="B9" s="127"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="18">
         <f>I7 + 1</f>
         <v>9</v>
@@ -2088,10 +2087,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
-      <c r="B10" s="127"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>37</v>
@@ -2107,10 +2106,10 @@
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120">
+      <c r="A11" s="121">
         <v>12</v>
       </c>
-      <c r="B11" s="127"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="21">
         <f>I9 + 1</f>
         <v>16</v>
@@ -2141,8 +2140,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="127"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="43"/>
       <c r="D12" s="37" t="s">
         <v>36</v>
@@ -2158,10 +2157,10 @@
       <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120">
+      <c r="A13" s="121">
         <v>11</v>
       </c>
-      <c r="B13" s="127"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="21">
         <f>I11 + 1</f>
         <v>23</v>
@@ -2192,11 +2191,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="123"/>
-      <c r="B14" s="127"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="43"/>
       <c r="D14" s="105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="87"/>
       <c r="F14" s="40" t="s">
@@ -2211,10 +2210,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121">
+      <c r="A15" s="123">
         <v>10</v>
       </c>
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="132" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="49">
@@ -2246,8 +2245,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="128"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="54" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -2273,7 +2272,7 @@
         <v>WINTER BREAK</v>
       </c>
       <c r="I16" s="111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2383,19 +2382,19 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="32" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="115" t="str">
+      <c r="A26" s="127" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2020 Schedule
 (as of 3-12-2020, subject to change)</v>
       </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="117"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="129"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
@@ -2433,7 +2432,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="118">
+      <c r="A28" s="130">
         <v>10</v>
       </c>
       <c r="B28" s="73"/>
@@ -2467,8 +2466,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
-      <c r="B29" s="125" t="s">
+      <c r="A29" s="131"/>
+      <c r="B29" s="119" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="47" t="str">
@@ -2502,10 +2501,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="119">
+      <c r="A30" s="131">
         <v>9</v>
       </c>
-      <c r="B30" s="125"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="90">
         <f>I15 + 1</f>
         <v>8</v>
@@ -2536,8 +2535,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
-      <c r="B31" s="125"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="91" t="str">
         <f>H29</f>
         <v>WINTER BREAK</v>
@@ -2551,15 +2550,15 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" s="71"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120">
+      <c r="A32" s="121">
         <v>8</v>
       </c>
-      <c r="B32" s="125"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="25">
         <f>I30 + 1</f>
         <v>15</v>
@@ -2590,8 +2589,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
-      <c r="B33" s="125"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="10"/>
       <c r="D33" s="28" t="s">
         <v>16</v>
@@ -2609,10 +2608,10 @@
       <c r="I33" s="71"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="120">
+      <c r="A34" s="121">
         <v>7</v>
       </c>
-      <c r="B34" s="125"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="10">
         <f>I32 + 1</f>
         <v>22</v>
@@ -2643,8 +2642,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="120"/>
-      <c r="B35" s="125"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="10"/>
       <c r="D35" s="7" t="s">
         <v>18</v>
@@ -2657,12 +2656,12 @@
         <v>47</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I35" s="42"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="120">
+      <c r="A36" s="121">
         <v>6</v>
       </c>
       <c r="B36" s="74"/>
@@ -2695,7 +2694,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="122"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="75"/>
       <c r="C37" s="109"/>
       <c r="D37" s="29" t="s">
@@ -2705,7 +2704,7 @@
         <v>48</v>
       </c>
       <c r="F37" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" s="41"/>
       <c r="H37" s="94" t="s">
@@ -2714,10 +2713,10 @@
       <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="121">
+      <c r="A38" s="123">
         <v>5</v>
       </c>
-      <c r="B38" s="129" t="s">
+      <c r="B38" s="116" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="43">
@@ -2750,18 +2749,18 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="120"/>
-      <c r="B39" s="130"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="117"/>
       <c r="C39" s="43"/>
       <c r="D39" s="98" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="134" t="s">
-        <v>69</v>
+        <v>51</v>
+      </c>
+      <c r="G39" s="115" t="s">
+        <v>68</v>
       </c>
       <c r="H39" s="48" t="s">
         <v>6</v>
@@ -2771,10 +2770,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="120">
+      <c r="A40" s="121">
         <v>4</v>
       </c>
-      <c r="B40" s="130"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="48">
         <f>I38 + 1</f>
         <v>12</v>
@@ -2805,8 +2804,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
-      <c r="B41" s="130"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
@@ -2824,10 +2823,10 @@
       <c r="I41" s="42"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="120">
+      <c r="A42" s="121">
         <v>3</v>
       </c>
-      <c r="B42" s="130"/>
+      <c r="B42" s="117"/>
       <c r="C42" s="43">
         <f>I40 + 1</f>
         <v>19</v>
@@ -2858,8 +2857,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="120"/>
-      <c r="B43" s="130"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="43"/>
       <c r="D43" s="92" t="s">
         <v>35</v>
@@ -2875,10 +2874,10 @@
       <c r="I43" s="85"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="120">
+      <c r="A44" s="121">
         <v>2</v>
       </c>
-      <c r="B44" s="130"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="21">
         <f>I42 + 1</f>
         <v>26</v>
@@ -2908,8 +2907,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="122"/>
-      <c r="B45" s="130"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="117"/>
       <c r="C45" s="97"/>
       <c r="D45" s="108" t="s">
         <v>7</v>
@@ -2925,10 +2924,10 @@
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="121">
+      <c r="A46" s="123">
         <v>1</v>
       </c>
-      <c r="B46" s="124" t="s">
+      <c r="B46" s="118" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="38">
@@ -2961,8 +2960,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="120"/>
-      <c r="B47" s="125"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="39"/>
       <c r="D47" s="7" t="s">
         <v>7</v>
@@ -2973,17 +2972,17 @@
       </c>
       <c r="G47" s="44"/>
       <c r="H47" s="112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="125"/>
+      <c r="A48" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="119"/>
       <c r="C48" s="25">
         <f>I46 + 1</f>
         <v>10</v>
@@ -3014,10 +3013,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="133"/>
-      <c r="B49" s="131"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>45</v>
@@ -3033,6 +3032,19 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B29:B35"/>
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="A13:A14"/>
@@ -3046,19 +3058,6 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B29:B35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2020Calendar.xlsx
+++ b/CS320-Spring2020Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Monday</t>
   </si>
@@ -65,23 +65,8 @@
     <t>April</t>
   </si>
   <si>
-    <t>Mid-Term
-Exam
-(in-class)</t>
-  </si>
-  <si>
-    <t>A03: Team MS1
-Minimal Working System</t>
-  </si>
-  <si>
     <t>Lecture 11: OO Design, OCP, LSP
 Design Principles and Design Patterns</t>
-  </si>
-  <si>
-    <t>Lecture 16: Testing</t>
-  </si>
-  <si>
-    <t>Lecture 17: Code Quality</t>
   </si>
   <si>
     <t>Lecture 1:
@@ -106,24 +91,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lecture  15: ORM, Designing a Persistence Layer
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lab 6: ORM
-(assigned)</t>
-    </r>
-  </si>
-  <si>
     <t>Exam</t>
   </si>
   <si>
@@ -160,14 +127,6 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>A03: Team MS2
-50% Progress on Features</t>
-  </si>
-  <si>
-    <t>SQL/JDBC/ORM Review &amp; Labs
-(in class)</t>
-  </si>
-  <si>
     <t>A03: Team MS3
 75% Working System
 (w/SQL DB)</t>
@@ -206,9 +165,6 @@
 50% Progresss</t>
   </si>
   <si>
-    <t>A04: Individual MS3 Final Project Demo</t>
-  </si>
-  <si>
     <t>FINAL EXAM PERIOD
 101: 8:00-10:00 102: 10:15-12:15
 A08: Team Presentation and Demonstration
@@ -239,51 +195,6 @@
 A11: Team Project
 Final Self/Peer Evaluations due
 both 7:00 am (Marmoset)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lecture 14: DB Applications, JDBC
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lab 4: SQL
-due (7:00a)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lab 5: JDBC
-(assigned)</t>
-    </r>
-  </si>
-  <si>
-    <t>Work Ethic Lecture</t>
   </si>
   <si>
     <t>Final Presentation &amp; Demo</t>
@@ -450,26 +361,92 @@
 (Marmoset)</t>
   </si>
   <si>
-    <t>CS320: SW Engineering - Spring 2020 Schedule
-(as of 3-12-2020, subject to change)</t>
+    <t>A09: Individual Project Report due 7:00 am
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>A08: Team Technical Report due 7:00 am
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>Lab 4: SQL
+due (7:00a)</t>
+  </si>
+  <si>
+    <t>A03: Team MS1
+Minimal Working System
+PPT: Team Drive
+Code: Marmoset
+due (7:00a)</t>
+  </si>
+  <si>
+    <t>Coronavirus Closure</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lectures 14 &amp; 15: DB Applications, JDBC / ORM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lab 5: JDBC
+Lab 6: ORM
+(assigned)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lecture  15: ORM, Designing a Persistence Layer
+SQL/JDBC/ORM Review &amp; Labs
+(on-line)</t>
+  </si>
+  <si>
+    <t>SQL/JDBC/ORM Review &amp; Labs
+(on-line)</t>
+  </si>
+  <si>
+    <t>Lecture 16: Testing
+(on-line)</t>
+  </si>
+  <si>
+    <t>Lecture 17: Code Quality
+(on-line)</t>
   </si>
   <si>
     <t>Library Project Example
 Analysis &amp;
-Review</t>
+Review
+(on-line)</t>
+  </si>
+  <si>
+    <t>Mid-Term
+Exam
+(on-line)</t>
+  </si>
+  <si>
+    <t>A03: Team MS2
+50% Progress on Features
+(on-line)</t>
   </si>
   <si>
     <t>Exam Review
 and
-Library Project Example Review</t>
-  </si>
-  <si>
-    <t>A09: Individual Project Report due 7:00 am
-(Marmoset)</t>
-  </si>
-  <si>
-    <t>A08: Team Technical Report due 7:00 am
-(Marmoset)</t>
+Library Project Example Review
+(on-line)</t>
+  </si>
+  <si>
+    <t>A04: Individual MS3 Final Project Demo
+(on-line)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2020 Schedule
+(as of 3-22-2020, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1399,21 +1376,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1444,9 +1412,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1462,8 +1427,47 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1471,56 +1475,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1831,8 +1802,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,21 +1821,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="129"/>
+      <c r="A1" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
-        <v>31</v>
+      <c r="A2" s="109" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -1890,10 +1861,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123">
+      <c r="A3" s="117">
         <v>16</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="120" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="49">
@@ -1925,8 +1896,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121"/>
-      <c r="B4" s="119"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
@@ -1937,19 +1908,19 @@
         <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="80" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I4" s="84"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121">
+      <c r="A5" s="116">
         <v>15</v>
       </c>
-      <c r="B5" s="119"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>26</v>
@@ -1974,34 +1945,34 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="124"/>
-      <c r="B6" s="119"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="79" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E6" s="81"/>
-      <c r="F6" s="110" t="s">
-        <v>57</v>
+      <c r="F6" s="106" t="s">
+        <v>47</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="114"/>
+      <c r="H6" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="110"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123">
+      <c r="A7" s="117">
         <v>14</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="122" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="82">
@@ -2034,29 +2005,29 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="105" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="D8" s="102" t="s">
+        <v>52</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="72" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131">
+      <c r="A9" s="115">
         <v>13</v>
       </c>
-      <c r="B9" s="133"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="18">
         <f>I7 + 1</f>
         <v>9</v>
@@ -2087,29 +2058,29 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="46" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121">
+      <c r="A11" s="116">
         <v>12</v>
       </c>
-      <c r="B11" s="133"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="21">
         <f>I9 + 1</f>
         <v>16</v>
@@ -2140,27 +2111,27 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="43"/>
       <c r="D12" s="37" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="121">
+      <c r="A13" s="116">
         <v>11</v>
       </c>
-      <c r="B13" s="133"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="21">
         <f>I11 + 1</f>
         <v>23</v>
@@ -2191,29 +2162,29 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122"/>
-      <c r="B14" s="133"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="43"/>
-      <c r="D14" s="105" t="s">
-        <v>54</v>
+      <c r="D14" s="102" t="s">
+        <v>44</v>
       </c>
       <c r="E14" s="87"/>
       <c r="F14" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="103"/>
-      <c r="H14" s="108" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="G14" s="100"/>
+      <c r="H14" s="105" t="s">
+        <v>15</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123">
+      <c r="A15" s="117">
         <v>10</v>
       </c>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="122" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="49">
@@ -2245,8 +2216,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="124"/>
-      <c r="B16" s="134"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="54" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -2271,8 +2242,8 @@
         <f>G16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I16" s="111" t="s">
-        <v>60</v>
+      <c r="I16" s="107" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2291,7 +2262,7 @@
       <c r="B18" s="31"/>
       <c r="D18" s="34"/>
       <c r="E18" s="70" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -2303,7 +2274,7 @@
       <c r="B19" s="36"/>
       <c r="D19" s="30"/>
       <c r="E19" s="64" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -2315,7 +2286,7 @@
       <c r="B20" s="31"/>
       <c r="D20" s="34"/>
       <c r="E20" s="65" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -2327,7 +2298,7 @@
       <c r="B21" s="31"/>
       <c r="D21" s="34"/>
       <c r="E21" s="66" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
@@ -2339,7 +2310,7 @@
       <c r="B22" s="31"/>
       <c r="D22" s="34"/>
       <c r="E22" s="67" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -2352,7 +2323,7 @@
       <c r="C23" s="62"/>
       <c r="D23" s="34"/>
       <c r="E23" s="68" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -2382,19 +2353,19 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="32" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="127" t="str">
+      <c r="A26" s="111" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2020 Schedule
-(as of 3-12-2020, subject to change)</v>
-      </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="129"/>
+(as of 3-22-2020, subject to change)</v>
+      </c>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="113"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
@@ -2432,7 +2403,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="130">
+      <c r="A28" s="114">
         <v>10</v>
       </c>
       <c r="B28" s="73"/>
@@ -2466,8 +2437,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="131"/>
-      <c r="B29" s="119" t="s">
+      <c r="A29" s="115"/>
+      <c r="B29" s="121" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="47" t="str">
@@ -2501,10 +2472,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="131">
+      <c r="A30" s="115">
         <v>9</v>
       </c>
-      <c r="B30" s="119"/>
+      <c r="B30" s="121"/>
       <c r="C30" s="90">
         <f>I15 + 1</f>
         <v>8</v>
@@ -2535,30 +2506,32 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="119"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="91" t="str">
         <f>H29</f>
         <v>WINTER BREAK</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="71"/>
+      <c r="H31" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="121">
+      <c r="A32" s="116">
         <v>8</v>
       </c>
-      <c r="B32" s="119"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="25">
         <f>I30 + 1</f>
         <v>15</v>
@@ -2589,29 +2562,29 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="119"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="121"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>58</v>
+      </c>
       <c r="F33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="96" t="s">
-        <v>46</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I33" s="71"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="121">
+      <c r="A34" s="116">
         <v>7</v>
       </c>
-      <c r="B34" s="119"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="10">
         <f>I32 + 1</f>
         <v>22</v>
@@ -2642,26 +2615,26 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="121"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="46" t="s">
+        <v>38</v>
+      </c>
       <c r="D35" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="69" t="s">
-        <v>47</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G35" s="7"/>
       <c r="H35" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="42"/>
+        <v>62</v>
+      </c>
+      <c r="I35" s="71"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="121">
+      <c r="A36" s="116">
         <v>6</v>
       </c>
       <c r="B36" s="74"/>
@@ -2680,50 +2653,52 @@
       <c r="F36" s="76">
         <v>1</v>
       </c>
-      <c r="G36" s="100">
+      <c r="G36" s="97">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="H36" s="83">
+      <c r="H36" s="97">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="I36" s="101">
+      <c r="I36" s="98">
         <f>H36 + 1</f>
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="124"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="75"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="72" t="s">
+      <c r="C37" s="130" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="104"/>
+      <c r="F37" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="42"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="45" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="123">
+      <c r="A38" s="117">
         <v>5</v>
       </c>
-      <c r="B38" s="116" t="s">
+      <c r="B38" s="125" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="43">
         <f>I36 + 1</f>
         <v>5</v>
       </c>
-      <c r="D38" s="102">
+      <c r="D38" s="99">
         <f>C38 + 1</f>
         <v>6</v>
       </c>
@@ -2749,31 +2724,31 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="98" t="s">
-        <v>43</v>
+      <c r="A39" s="116"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="132" t="s">
+        <v>66</v>
       </c>
       <c r="E39" s="41"/>
-      <c r="F39" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="48" t="s">
+      <c r="F39" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="52" t="s">
+      <c r="H39" s="60" t="s">
         <v>6</v>
       </c>
+      <c r="I39" s="45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="121">
+      <c r="A40" s="116">
         <v>4</v>
       </c>
-      <c r="B40" s="117"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="48">
         <f>I38 + 1</f>
         <v>12</v>
@@ -2804,8 +2779,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="117"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
@@ -2813,7 +2788,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="15"/>
-      <c r="F41" s="95" t="s">
+      <c r="F41" s="27" t="s">
         <v>7</v>
       </c>
       <c r="G41" s="27"/>
@@ -2823,10 +2798,10 @@
       <c r="I41" s="42"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="121">
+      <c r="A42" s="116">
         <v>3</v>
       </c>
-      <c r="B42" s="117"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="43">
         <f>I40 + 1</f>
         <v>19</v>
@@ -2857,27 +2832,27 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="121"/>
-      <c r="B43" s="117"/>
+      <c r="A43" s="116"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="43"/>
       <c r="D43" s="92" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E43" s="15"/>
-      <c r="F43" s="95" t="s">
+      <c r="F43" s="94" t="s">
         <v>7</v>
       </c>
       <c r="G43" s="87"/>
-      <c r="H43" s="95" t="s">
+      <c r="H43" s="94" t="s">
         <v>7</v>
       </c>
       <c r="I43" s="85"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121">
+      <c r="A44" s="116">
         <v>2</v>
       </c>
-      <c r="B44" s="117"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="21">
         <f>I42 + 1</f>
         <v>26</v>
@@ -2898,7 +2873,7 @@
         <f t="shared" ref="G44" si="12">F44 + 1</f>
         <v>30</v>
       </c>
-      <c r="H44" s="99">
+      <c r="H44" s="96">
         <v>1</v>
       </c>
       <c r="I44" s="6">
@@ -2907,27 +2882,27 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="124"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="108" t="s">
+      <c r="A45" s="118"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="103"/>
-      <c r="F45" s="108" t="s">
+      <c r="E45" s="100"/>
+      <c r="F45" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="106"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="24" t="s">
         <v>7</v>
       </c>
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="123">
+      <c r="A46" s="117">
         <v>1</v>
       </c>
-      <c r="B46" s="118" t="s">
+      <c r="B46" s="120" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="38">
@@ -2938,7 +2913,7 @@
         <f t="shared" ref="D46:I46" si="13">C46 + 1</f>
         <v>4</v>
       </c>
-      <c r="E46" s="99">
+      <c r="E46" s="96">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
@@ -2960,8 +2935,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="121"/>
-      <c r="B47" s="119"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="121"/>
       <c r="C47" s="39"/>
       <c r="D47" s="7" t="s">
         <v>7</v>
@@ -2971,18 +2946,18 @@
         <v>7</v>
       </c>
       <c r="G47" s="44"/>
-      <c r="H47" s="112" t="s">
-        <v>55</v>
+      <c r="H47" s="108" t="s">
+        <v>45</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="119"/>
+      <c r="A48" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="121"/>
       <c r="C48" s="25">
         <f>I46 + 1</f>
         <v>10</v>
@@ -3013,17 +2988,17 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="126"/>
-      <c r="B49" s="120"/>
+      <c r="A49" s="129"/>
+      <c r="B49" s="127"/>
       <c r="C49" s="69" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="29" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="12"/>
@@ -3032,6 +3007,19 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
@@ -3045,19 +3033,6 @@
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B29:B35"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2020Calendar.xlsx
+++ b/CS320-Spring2020Calendar.xlsx
@@ -180,9 +180,6 @@
     <t>Lab 5: JDBC due
 7:00 am
 (Marmoset)</t>
-  </si>
-  <si>
-    <t>Lab 6: ORM due  7:00 am (Marmoset)</t>
   </si>
   <si>
     <t>A11: Team Project Midterm
@@ -447,6 +444,11 @@
   <si>
     <t>CS320: SW Engineering - Spring 2020 Schedule
 (as of 3-22-2020, subject to change)</t>
+  </si>
+  <si>
+    <t>Lab 6: ORM due  Monday, 3-30-20 by 7:00 am
+----------&gt;&gt;&gt;
+ (Marmoset)</t>
   </si>
 </sst>
 </file>
@@ -1427,32 +1429,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1460,6 +1450,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1468,30 +1494,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1802,8 +1804,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,17 +1823,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="113"/>
+      <c r="A1" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="127"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="109" t="s">
@@ -1861,10 +1863,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117">
+      <c r="A3" s="121">
         <v>16</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="116" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="49">
@@ -1896,8 +1898,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="116"/>
-      <c r="B4" s="121"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
@@ -1912,15 +1914,15 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4" s="84"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116">
+      <c r="A5" s="119">
         <v>15</v>
       </c>
-      <c r="B5" s="121"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>26</v>
@@ -1950,29 +1952,29 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="118"/>
-      <c r="B6" s="121"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="81"/>
       <c r="F6" s="106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="110"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117">
+      <c r="A7" s="121">
         <v>14</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="130" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="82">
@@ -2005,17 +2007,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="123"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="72" t="s">
@@ -2024,10 +2026,10 @@
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115">
+      <c r="A9" s="129">
         <v>13</v>
       </c>
-      <c r="B9" s="123"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="18">
         <f>I7 + 1</f>
         <v>9</v>
@@ -2058,10 +2060,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="116"/>
-      <c r="B10" s="123"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>30</v>
@@ -2077,10 +2079,10 @@
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116">
+      <c r="A11" s="119">
         <v>12</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="21">
         <f>I9 + 1</f>
         <v>16</v>
@@ -2111,8 +2113,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="123"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="43"/>
       <c r="D12" s="37" t="s">
         <v>29</v>
@@ -2128,10 +2130,10 @@
       <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116">
+      <c r="A13" s="119">
         <v>11</v>
       </c>
-      <c r="B13" s="123"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="21">
         <f>I11 + 1</f>
         <v>23</v>
@@ -2162,11 +2164,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="119"/>
-      <c r="B14" s="123"/>
+      <c r="A14" s="120"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="43"/>
       <c r="D14" s="102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="87"/>
       <c r="F14" s="40" t="s">
@@ -2181,10 +2183,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117">
+      <c r="A15" s="121">
         <v>10</v>
       </c>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="130" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="49">
@@ -2216,8 +2218,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
-      <c r="B16" s="124"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="132"/>
       <c r="C16" s="54" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -2243,7 +2245,7 @@
         <v>WINTER BREAK</v>
       </c>
       <c r="I16" s="107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2353,19 +2355,19 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="32" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="111" t="str">
+      <c r="A26" s="125" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2020 Schedule
 (as of 3-22-2020, subject to change)</v>
       </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="113"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="127"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
@@ -2403,7 +2405,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="114">
+      <c r="A28" s="128">
         <v>10</v>
       </c>
       <c r="B28" s="73"/>
@@ -2437,8 +2439,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="115"/>
-      <c r="B29" s="121" t="s">
+      <c r="A29" s="129"/>
+      <c r="B29" s="117" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="47" t="str">
@@ -2472,10 +2474,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="115">
+      <c r="A30" s="129">
         <v>9</v>
       </c>
-      <c r="B30" s="121"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="90">
         <f>I15 + 1</f>
         <v>8</v>
@@ -2506,8 +2508,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
-      <c r="B31" s="121"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="91" t="str">
         <f>H29</f>
         <v>WINTER BREAK</v>
@@ -2521,17 +2523,17 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="116">
+      <c r="A32" s="119">
         <v>8</v>
       </c>
-      <c r="B32" s="121"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="25">
         <f>I30 + 1</f>
         <v>15</v>
@@ -2562,29 +2564,29 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
-      <c r="B33" s="121"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="10"/>
       <c r="D33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I33" s="71"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="116">
+      <c r="A34" s="119">
         <v>7</v>
       </c>
-      <c r="B34" s="121"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="10">
         <f>I32 + 1</f>
         <v>22</v>
@@ -2615,26 +2617,26 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="116"/>
-      <c r="B35" s="121"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="117"/>
       <c r="C35" s="46" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I35" s="71"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="116">
+      <c r="A36" s="119">
         <v>6</v>
       </c>
       <c r="B36" s="74"/>
@@ -2667,31 +2669,31 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="118"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="75"/>
-      <c r="C37" s="130" t="s">
-        <v>39</v>
+      <c r="C37" s="111" t="s">
+        <v>70</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="104"/>
-      <c r="F37" s="131" t="s">
-        <v>67</v>
+      <c r="F37" s="112" t="s">
+        <v>66</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="117">
+      <c r="A38" s="121">
         <v>5</v>
       </c>
-      <c r="B38" s="125" t="s">
+      <c r="B38" s="114" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="43">
@@ -2724,15 +2726,15 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="116"/>
-      <c r="B39" s="126"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="27"/>
-      <c r="D39" s="132" t="s">
-        <v>66</v>
+      <c r="D39" s="113" t="s">
+        <v>65</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G39" s="60" t="s">
         <v>6</v>
@@ -2741,14 +2743,14 @@
         <v>6</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="116">
+      <c r="A40" s="119">
         <v>4</v>
       </c>
-      <c r="B40" s="126"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="48">
         <f>I38 + 1</f>
         <v>12</v>
@@ -2779,8 +2781,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="116"/>
-      <c r="B41" s="126"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
@@ -2798,10 +2800,10 @@
       <c r="I41" s="42"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="116">
+      <c r="A42" s="119">
         <v>3</v>
       </c>
-      <c r="B42" s="126"/>
+      <c r="B42" s="115"/>
       <c r="C42" s="43">
         <f>I40 + 1</f>
         <v>19</v>
@@ -2832,8 +2834,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="116"/>
-      <c r="B43" s="126"/>
+      <c r="A43" s="119"/>
+      <c r="B43" s="115"/>
       <c r="C43" s="43"/>
       <c r="D43" s="92" t="s">
         <v>28</v>
@@ -2849,10 +2851,10 @@
       <c r="I43" s="85"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="116">
+      <c r="A44" s="119">
         <v>2</v>
       </c>
-      <c r="B44" s="126"/>
+      <c r="B44" s="115"/>
       <c r="C44" s="21">
         <f>I42 + 1</f>
         <v>26</v>
@@ -2882,8 +2884,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="118"/>
-      <c r="B45" s="126"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="95"/>
       <c r="D45" s="105" t="s">
         <v>7</v>
@@ -2899,10 +2901,10 @@
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="117">
+      <c r="A46" s="121">
         <v>1</v>
       </c>
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="116" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="38">
@@ -2935,8 +2937,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="116"/>
-      <c r="B47" s="121"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="39"/>
       <c r="D47" s="7" t="s">
         <v>7</v>
@@ -2947,17 +2949,17 @@
       </c>
       <c r="G47" s="44"/>
       <c r="H47" s="108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="121"/>
+      <c r="A48" s="123" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="117"/>
       <c r="C48" s="25">
         <f>I46 + 1</f>
         <v>10</v>
@@ -2988,10 +2990,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="129"/>
-      <c r="B49" s="127"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="118"/>
       <c r="C49" s="69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>37</v>
@@ -3007,6 +3009,19 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B29:B35"/>
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="A13:A14"/>
@@ -3020,19 +3035,6 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B29:B35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2020Calendar.xlsx
+++ b/CS320-Spring2020Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Monday</t>
   </si>
@@ -37,10 +37,6 @@
   </si>
   <si>
     <t>SPRING BREAK</t>
-  </si>
-  <si>
-    <t>Team Session
-(in class)</t>
   </si>
   <si>
     <t>SEMESTER
@@ -127,11 +123,6 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>A03: Team MS3
-75% Working System
-(w/SQL DB)</t>
-  </si>
-  <si>
     <t>A04: Individual MS1 Baseline Prototype</t>
   </si>
   <si>
@@ -163,18 +154,6 @@
   <si>
     <t>A04: Individual MS2
 50% Progresss</t>
-  </si>
-  <si>
-    <t>FINAL EXAM PERIOD
-101: 8:00-10:00 102: 10:15-12:15
-A08: Team Presentation and Demonstration
-(in class)</t>
-  </si>
-  <si>
-    <t>FINAL EXAM PERIOD
-103: 3:00-5:00
-A08: Team Presentation and Demonstration
-(in class)</t>
   </si>
   <si>
     <t>Lab 5: JDBC due
@@ -377,9 +356,6 @@
 due (7:00a)</t>
   </si>
   <si>
-    <t>Coronavirus Closure</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Lectures 14 &amp; 15: DB Applications, JDBC / ORM
 </t>
@@ -399,56 +375,87 @@
     </r>
   </si>
   <si>
+    <t>Lab 6: ORM due  Monday, 3-30-20 by 7:00 am
+----------&gt;&gt;&gt;
+ (Marmoset)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2020 Schedule
+(as of 4-7-2020, subject to change)</t>
+  </si>
+  <si>
+    <t>Team Project Work Session
+(Zoom)</t>
+  </si>
+  <si>
+    <t>Team Project
+Work Session
+(Zoom)</t>
+  </si>
+  <si>
     <t>Lecture  15: ORM, Designing a Persistence Layer
 SQL/JDBC/ORM Review &amp; Labs
-(on-line)</t>
+(Zoom)</t>
+  </si>
+  <si>
+    <t>Lecture 16: Testing
+(Zoom)</t>
+  </si>
+  <si>
+    <t>Lecture 17: Code Quality
+(Zoom)</t>
   </si>
   <si>
     <t>SQL/JDBC/ORM Review &amp; Labs
-(on-line)</t>
-  </si>
-  <si>
-    <t>Lecture 16: Testing
-(on-line)</t>
-  </si>
-  <si>
-    <t>Lecture 17: Code Quality
-(on-line)</t>
+(Zoom)</t>
   </si>
   <si>
     <t>Library Project Example
 Analysis &amp;
 Review
-(on-line)</t>
-  </si>
-  <si>
-    <t>Mid-Term
-Exam
-(on-line)</t>
-  </si>
-  <si>
-    <t>A03: Team MS2
-50% Progress on Features
-(on-line)</t>
+(Zoom)</t>
   </si>
   <si>
     <t>Exam Review
 and
 Library Project Example Review
-(on-line)</t>
+(Zoom)</t>
+  </si>
+  <si>
+    <t>Mid-Term
+Exam
+(take-at-home)</t>
   </si>
   <si>
     <t>A04: Individual MS3 Final Project Demo
-(on-line)</t>
-  </si>
-  <si>
-    <t>CS320: SW Engineering - Spring 2020 Schedule
-(as of 3-22-2020, subject to change)</t>
-  </si>
-  <si>
-    <t>Lab 6: ORM due  Monday, 3-30-20 by 7:00 am
-----------&gt;&gt;&gt;
- (Marmoset)</t>
+(Zoom)</t>
+  </si>
+  <si>
+    <t>FINAL EXAM PERIOD
+103: 3:00-5:00
+A08: Team Presentation and Demonstration
+(Zoom)</t>
+  </si>
+  <si>
+    <t>FINAL EXAM PERIOD
+101: 8:00-10:00 102: 10:15-12:15
+A08: Team Presentation and Demonstration
+(Zoom)</t>
+  </si>
+  <si>
+    <t>A03: Team MS2
+50% Progress on Features
+(Zoom)</t>
+  </si>
+  <si>
+    <t>Coronavirus Closure
+Preparing to
+teach on-line</t>
+  </si>
+  <si>
+    <t>A03: Team MS3
+75% Working System (SQL DB)
+(Zoom)</t>
   </si>
 </sst>
 </file>
@@ -1438,61 +1445,61 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1804,8 +1811,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,25 +1830,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="127"/>
+      <c r="A1" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="116"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1859,15 +1866,15 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="120">
+        <v>16</v>
+      </c>
+      <c r="B3" s="123" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121">
-        <v>16</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="49">
         <v>19</v>
@@ -1899,22 +1906,22 @@
     </row>
     <row r="4" spans="1:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="119"/>
-      <c r="B4" s="117"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="80" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I4" s="84"/>
     </row>
@@ -1922,7 +1929,7 @@
       <c r="A5" s="119">
         <v>15</v>
       </c>
-      <c r="B5" s="117"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>26</v>
@@ -1952,30 +1959,30 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="122"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="79" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E6" s="81"/>
       <c r="F6" s="106" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="104" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I6" s="110"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121">
+      <c r="A7" s="120">
         <v>14</v>
       </c>
-      <c r="B7" s="130" t="s">
-        <v>12</v>
+      <c r="B7" s="125" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="82">
         <f>I5 + 1</f>
@@ -2007,29 +2014,29 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
-      <c r="B8" s="131"/>
+      <c r="A8" s="122"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="102" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129">
+      <c r="A9" s="118">
         <v>13</v>
       </c>
-      <c r="B9" s="131"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="18">
         <f>I7 + 1</f>
         <v>9</v>
@@ -2061,20 +2068,20 @@
     </row>
     <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="119"/>
-      <c r="B10" s="131"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I10" s="17"/>
     </row>
@@ -2082,7 +2089,7 @@
       <c r="A11" s="119">
         <v>12</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="21">
         <f>I9 + 1</f>
         <v>16</v>
@@ -2114,18 +2121,18 @@
     </row>
     <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="119"/>
-      <c r="B12" s="131"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="43"/>
       <c r="D12" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="85"/>
     </row>
@@ -2133,7 +2140,7 @@
       <c r="A13" s="119">
         <v>11</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="21">
         <f>I11 + 1</f>
         <v>23</v>
@@ -2164,30 +2171,30 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="120"/>
-      <c r="B14" s="131"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="43"/>
       <c r="D14" s="102" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14" s="87"/>
       <c r="F14" s="40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" s="100"/>
       <c r="H14" s="105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121">
+      <c r="A15" s="120">
         <v>10</v>
       </c>
-      <c r="B15" s="130" t="s">
-        <v>13</v>
+      <c r="B15" s="125" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="49">
         <v>1</v>
@@ -2218,8 +2225,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="132"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="54" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -2245,7 +2252,7 @@
         <v>WINTER BREAK</v>
       </c>
       <c r="I16" s="107" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2264,7 +2271,7 @@
       <c r="B18" s="31"/>
       <c r="D18" s="34"/>
       <c r="E18" s="70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -2276,7 +2283,7 @@
       <c r="B19" s="36"/>
       <c r="D19" s="30"/>
       <c r="E19" s="64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -2288,7 +2295,7 @@
       <c r="B20" s="31"/>
       <c r="D20" s="34"/>
       <c r="E20" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -2300,7 +2307,7 @@
       <c r="B21" s="31"/>
       <c r="D21" s="34"/>
       <c r="E21" s="66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
@@ -2312,7 +2319,7 @@
       <c r="B22" s="31"/>
       <c r="D22" s="34"/>
       <c r="E22" s="67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -2325,7 +2332,7 @@
       <c r="C23" s="62"/>
       <c r="D23" s="34"/>
       <c r="E23" s="68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -2355,22 +2362,22 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="32" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="125" t="str">
+      <c r="A26" s="114" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2020 Schedule
-(as of 3-22-2020, subject to change)</v>
-      </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="127"/>
+(as of 4-7-2020, subject to change)</v>
+      </c>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="str">
+      <c r="A27" s="109" t="str">
         <f>A2</f>
         <v>Weeks</v>
       </c>
@@ -2405,7 +2412,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="128">
+      <c r="A28" s="117">
         <v>10</v>
       </c>
       <c r="B28" s="73"/>
@@ -2439,9 +2446,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="129"/>
-      <c r="B29" s="117" t="s">
-        <v>13</v>
+      <c r="A29" s="118"/>
+      <c r="B29" s="124" t="s">
+        <v>12</v>
       </c>
       <c r="C29" s="47" t="str">
         <f>C16</f>
@@ -2474,10 +2481,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="129">
+      <c r="A30" s="118">
         <v>9</v>
       </c>
-      <c r="B30" s="117"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="90">
         <f>I15 + 1</f>
         <v>8</v>
@@ -2509,31 +2516,31 @@
     </row>
     <row r="31" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="119"/>
-      <c r="B31" s="117"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="91" t="str">
         <f>H29</f>
         <v>WINTER BREAK</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="102" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="119">
         <v>8</v>
       </c>
-      <c r="B32" s="117"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="25">
         <f>I30 + 1</f>
         <v>15</v>
@@ -2565,20 +2572,20 @@
     </row>
     <row r="33" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="119"/>
-      <c r="B33" s="117"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="10"/>
       <c r="D33" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I33" s="71"/>
     </row>
@@ -2586,7 +2593,7 @@
       <c r="A34" s="119">
         <v>7</v>
       </c>
-      <c r="B34" s="117"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="10">
         <f>I32 + 1</f>
         <v>22</v>
@@ -2618,20 +2625,20 @@
     </row>
     <row r="35" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="119"/>
-      <c r="B35" s="117"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I35" s="71"/>
     </row>
@@ -2669,32 +2676,32 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="122"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="75"/>
       <c r="C37" s="111" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="104"/>
       <c r="F37" s="112" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="72" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="121">
+      <c r="A38" s="120">
         <v>5</v>
       </c>
-      <c r="B38" s="114" t="s">
-        <v>14</v>
+      <c r="B38" s="128" t="s">
+        <v>13</v>
       </c>
       <c r="C38" s="43">
         <f>I36 + 1</f>
@@ -2727,14 +2734,14 @@
     </row>
     <row r="39" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="119"/>
-      <c r="B39" s="115"/>
+      <c r="B39" s="129"/>
       <c r="C39" s="27"/>
       <c r="D39" s="113" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G39" s="60" t="s">
         <v>6</v>
@@ -2743,14 +2750,14 @@
         <v>6</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="119">
         <v>4</v>
       </c>
-      <c r="B40" s="115"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="48">
         <f>I38 + 1</f>
         <v>12</v>
@@ -2782,7 +2789,7 @@
     </row>
     <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="119"/>
-      <c r="B41" s="115"/>
+      <c r="B41" s="129"/>
       <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
@@ -2791,11 +2798,11 @@
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="27" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="I41" s="42"/>
     </row>
@@ -2803,7 +2810,7 @@
       <c r="A42" s="119">
         <v>3</v>
       </c>
-      <c r="B42" s="115"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="43">
         <f>I40 + 1</f>
         <v>19</v>
@@ -2833,20 +2840,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="119"/>
-      <c r="B43" s="115"/>
+      <c r="B43" s="129"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="92" t="s">
-        <v>28</v>
+      <c r="D43" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="E43" s="15"/>
-      <c r="F43" s="94" t="s">
-        <v>7</v>
+      <c r="F43" s="92" t="s">
+        <v>71</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="94" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="I43" s="85"/>
     </row>
@@ -2854,7 +2861,7 @@
       <c r="A44" s="119">
         <v>2</v>
       </c>
-      <c r="B44" s="115"/>
+      <c r="B44" s="129"/>
       <c r="C44" s="21">
         <f>I42 + 1</f>
         <v>26</v>
@@ -2883,28 +2890,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="122"/>
-      <c r="B45" s="115"/>
+    <row r="45" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="121"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="95"/>
       <c r="D45" s="105" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E45" s="100"/>
       <c r="F45" s="105" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="G45" s="103"/>
       <c r="H45" s="24" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="121">
+      <c r="A46" s="120">
         <v>1</v>
       </c>
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="123" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="38">
@@ -2938,28 +2945,28 @@
     </row>
     <row r="47" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="119"/>
-      <c r="B47" s="117"/>
+      <c r="B47" s="124"/>
       <c r="C47" s="39"/>
       <c r="D47" s="7" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="E47" s="44"/>
       <c r="F47" s="7" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="G47" s="44"/>
       <c r="H47" s="108" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="123" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="117"/>
+      <c r="A48" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="124"/>
       <c r="C48" s="25">
         <f>I46 + 1</f>
         <v>10</v>
@@ -2989,18 +2996,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="124"/>
-      <c r="B49" s="118"/>
+    <row r="49" spans="1:9" ht="140.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="132"/>
+      <c r="B49" s="130"/>
       <c r="C49" s="69" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="29" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="12"/>
@@ -3009,6 +3016,19 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
@@ -3022,19 +3042,6 @@
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B29:B35"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2020Calendar.xlsx
+++ b/CS320-Spring2020Calendar.xlsx
@@ -380,10 +380,6 @@
  (Marmoset)</t>
   </si>
   <si>
-    <t>CS320: SW Engineering - Spring 2020 Schedule
-(as of 4-7-2020, subject to change)</t>
-  </si>
-  <si>
     <t>Team Project Work Session
 (Zoom)</t>
   </si>
@@ -437,12 +433,6 @@
 (Zoom)</t>
   </si>
   <si>
-    <t>FINAL EXAM PERIOD
-101: 8:00-10:00 102: 10:15-12:15
-A08: Team Presentation and Demonstration
-(Zoom)</t>
-  </si>
-  <si>
     <t>A03: Team MS2
 50% Progress on Features
 (Zoom)</t>
@@ -456,6 +446,16 @@
     <t>A03: Team MS3
 75% Working System (SQL DB)
 (Zoom)</t>
+  </si>
+  <si>
+    <t>FINAL EXAM PERIOD
+101: 9:00-10:00 102: 10:15-12:15
+A08: Team Presentation and Demonstration
+(Zoom)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2020 Schedule
+(as of 5-6-2020, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -1445,32 +1445,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1478,6 +1457,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1485,21 +1500,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1811,8 +1811,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,17 +1830,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="116"/>
+      <c r="A1" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="127"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="109" t="s">
@@ -1870,10 +1870,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120">
+      <c r="A3" s="121">
         <v>16</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="116" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="49">
@@ -1906,7 +1906,7 @@
     </row>
     <row r="4" spans="1:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="119"/>
-      <c r="B4" s="124"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="47" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="A5" s="119">
         <v>15</v>
       </c>
-      <c r="B5" s="124"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>26</v>
@@ -1959,8 +1959,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121"/>
-      <c r="B6" s="124"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="79" t="s">
         <v>46</v>
       </c>
@@ -1978,10 +1978,10 @@
       <c r="I6" s="110"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="120">
+      <c r="A7" s="121">
         <v>14</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="130" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="82">
@@ -2014,8 +2014,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="126"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="46" t="s">
         <v>48</v>
       </c>
@@ -2033,10 +2033,10 @@
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118">
+      <c r="A9" s="129">
         <v>13</v>
       </c>
-      <c r="B9" s="126"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="18">
         <f>I7 + 1</f>
         <v>9</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="119"/>
-      <c r="B10" s="126"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="46" t="s">
         <v>49</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="A11" s="119">
         <v>12</v>
       </c>
-      <c r="B11" s="126"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="21">
         <f>I9 + 1</f>
         <v>16</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="119"/>
-      <c r="B12" s="126"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="43"/>
       <c r="D12" s="37" t="s">
         <v>27</v>
@@ -2140,7 +2140,7 @@
       <c r="A13" s="119">
         <v>11</v>
       </c>
-      <c r="B13" s="126"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="21">
         <f>I11 + 1</f>
         <v>23</v>
@@ -2171,8 +2171,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122"/>
-      <c r="B14" s="126"/>
+      <c r="A14" s="120"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="43"/>
       <c r="D14" s="102" t="s">
         <v>39</v>
@@ -2190,10 +2190,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120">
+      <c r="A15" s="121">
         <v>10</v>
       </c>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="130" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="49">
@@ -2225,8 +2225,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
-      <c r="B16" s="127"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="132"/>
       <c r="C16" s="54" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -2362,19 +2362,19 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="32" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="114" t="str">
+      <c r="A26" s="125" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2020 Schedule
-(as of 4-7-2020, subject to change)</v>
-      </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
+(as of 5-6-2020, subject to change)</v>
+      </c>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="127"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="109" t="str">
@@ -2412,7 +2412,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="117">
+      <c r="A28" s="128">
         <v>10</v>
       </c>
       <c r="B28" s="73"/>
@@ -2446,8 +2446,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="118"/>
-      <c r="B29" s="124" t="s">
+      <c r="A29" s="129"/>
+      <c r="B29" s="117" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="47" t="str">
@@ -2481,10 +2481,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="118">
+      <c r="A30" s="129">
         <v>9</v>
       </c>
-      <c r="B30" s="124"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="90">
         <f>I15 + 1</f>
         <v>8</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="31" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="119"/>
-      <c r="B31" s="124"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="91" t="str">
         <f>H29</f>
         <v>WINTER BREAK</v>
@@ -2540,7 +2540,7 @@
       <c r="A32" s="119">
         <v>8</v>
       </c>
-      <c r="B32" s="124"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="25">
         <f>I30 + 1</f>
         <v>15</v>
@@ -2572,20 +2572,20 @@
     </row>
     <row r="33" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="119"/>
-      <c r="B33" s="124"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="10"/>
       <c r="D33" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>53</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I33" s="71"/>
     </row>
@@ -2593,7 +2593,7 @@
       <c r="A34" s="119">
         <v>7</v>
       </c>
-      <c r="B34" s="124"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="10">
         <f>I32 + 1</f>
         <v>22</v>
@@ -2625,20 +2625,20 @@
     </row>
     <row r="35" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="119"/>
-      <c r="B35" s="124"/>
+      <c r="B35" s="117"/>
       <c r="C35" s="46" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I35" s="71"/>
     </row>
@@ -2676,31 +2676,31 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="121"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="75"/>
       <c r="C37" s="111" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="104"/>
       <c r="F37" s="112" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I37" s="45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="120">
+      <c r="A38" s="121">
         <v>5</v>
       </c>
-      <c r="B38" s="128" t="s">
+      <c r="B38" s="114" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="43">
@@ -2734,14 +2734,14 @@
     </row>
     <row r="39" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="119"/>
-      <c r="B39" s="129"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="27"/>
       <c r="D39" s="113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="60" t="s">
         <v>6</v>
@@ -2757,7 +2757,7 @@
       <c r="A40" s="119">
         <v>4</v>
       </c>
-      <c r="B40" s="129"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="48">
         <f>I38 + 1</f>
         <v>12</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="119"/>
-      <c r="B41" s="129"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
@@ -2798,11 +2798,11 @@
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I41" s="42"/>
     </row>
@@ -2810,7 +2810,7 @@
       <c r="A42" s="119">
         <v>3</v>
       </c>
-      <c r="B42" s="129"/>
+      <c r="B42" s="115"/>
       <c r="C42" s="43">
         <f>I40 + 1</f>
         <v>19</v>
@@ -2842,18 +2842,18 @@
     </row>
     <row r="43" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="119"/>
-      <c r="B43" s="129"/>
+      <c r="B43" s="115"/>
       <c r="C43" s="43"/>
       <c r="D43" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="92" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I43" s="85"/>
     </row>
@@ -2861,7 +2861,7 @@
       <c r="A44" s="119">
         <v>2</v>
       </c>
-      <c r="B44" s="129"/>
+      <c r="B44" s="115"/>
       <c r="C44" s="21">
         <f>I42 + 1</f>
         <v>26</v>
@@ -2891,27 +2891,27 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="121"/>
-      <c r="B45" s="129"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="95"/>
       <c r="D45" s="105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E45" s="100"/>
       <c r="F45" s="105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G45" s="103"/>
       <c r="H45" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="120">
+      <c r="A46" s="121">
         <v>1</v>
       </c>
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="116" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="38">
@@ -2945,14 +2945,14 @@
     </row>
     <row r="47" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="119"/>
-      <c r="B47" s="124"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="39"/>
       <c r="D47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" s="44"/>
       <c r="F47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G47" s="44"/>
       <c r="H47" s="108" t="s">
@@ -2963,10 +2963,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="131" t="s">
+      <c r="A48" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="124"/>
+      <c r="B48" s="117"/>
       <c r="C48" s="25">
         <f>I46 + 1</f>
         <v>10</v>
@@ -2997,17 +2997,17 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="140.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="132"/>
-      <c r="B49" s="130"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="118"/>
       <c r="C49" s="69" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="12"/>
@@ -3016,6 +3016,19 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B29:B35"/>
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="A13:A14"/>
@@ -3029,19 +3042,6 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B29:B35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" fitToHeight="0" orientation="portrait" r:id="rId1"/>
